--- a/Template.xlsx
+++ b/Template.xlsx
@@ -10330,7 +10330,7 @@
       <c r="B1" s="4"/>
       <c r="C1" s="10201" t="inlineStr">
         <is>
-          <t>Июль</t>
+          <t>Август</t>
         </is>
       </c>
       <c r="D1" s="10"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -10291,6 +10291,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="34" max="34" width="11.71875" customWidth="true"/>
+    <col min="2" max="2" width="39.0625" customWidth="true"/>
     <col min="3" max="3" width="3.90625" customWidth="true"/>
     <col min="4" max="4" width="3.90625" customWidth="true"/>
     <col min="5" max="5" width="3.90625" customWidth="true"/>
@@ -10508,38 +10509,98 @@
       <c r="AH3" s="304"/>
     </row>
     <row r="4">
-      <c r="A4" s="307"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="313"/>
-      <c r="D4" s="316"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="325"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="331"/>
-      <c r="J4" s="334"/>
-      <c r="K4" s="337"/>
-      <c r="L4" s="340"/>
-      <c r="M4" s="343"/>
-      <c r="N4" s="346"/>
+      <c r="A4" s="307" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="310" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="313" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="316" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="319" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="322" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="325" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H4" s="328" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="331" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J4" s="334" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="337" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L4" s="340" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M4" s="343" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N4" s="346" t="n">
+        <v>0.0</v>
+      </c>
       <c r="O4" s="349"/>
       <c r="P4" s="352"/>
-      <c r="Q4" s="355"/>
-      <c r="R4" s="358"/>
-      <c r="S4" s="361"/>
-      <c r="T4" s="364"/>
-      <c r="U4" s="367"/>
-      <c r="V4" s="370"/>
-      <c r="W4" s="373"/>
-      <c r="X4" s="376"/>
-      <c r="Y4" s="379"/>
-      <c r="Z4" s="382"/>
-      <c r="AA4" s="385"/>
-      <c r="AB4" s="388"/>
-      <c r="AC4" s="391"/>
-      <c r="AD4" s="394"/>
-      <c r="AE4" s="397"/>
-      <c r="AF4" s="400"/>
+      <c r="Q4" s="355" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R4" s="358" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S4" s="361" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T4" s="364" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U4" s="367" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V4" s="370" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W4" s="373" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X4" s="376" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Y4" s="379" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Z4" s="382" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AA4" s="385" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AB4" s="388" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AC4" s="391" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AD4" s="394" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AE4" s="397" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="AF4" s="400" t="n">
+        <v>0.0</v>
+      </c>
       <c r="AG4" s="403"/>
       <c r="AH4" s="406"/>
     </row>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -122,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6471">
+  <cellXfs count="6223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -5236,254 +5236,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
@@ -6854,13 +6606,13 @@
       <c r="O4" s="5155" t="n">
         <v>8.0</v>
       </c>
-      <c r="P4" s="5159" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="P4" s="5161"/>
       <c r="Q4" s="5163" t="n">
         <v>8.0</v>
       </c>
-      <c r="R4" s="5170"/>
+      <c r="R4" s="5167" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S4" s="5174"/>
       <c r="T4" s="5178"/>
       <c r="U4" s="5182"/>
@@ -6904,7 +6656,9 @@
       <c r="Q5" s="5287" t="n">
         <v>8.0</v>
       </c>
-      <c r="R5" s="5294"/>
+      <c r="R5" s="5291" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S5" s="5298"/>
       <c r="T5" s="5302"/>
       <c r="U5" s="5306"/>
@@ -6952,7 +6706,9 @@
       <c r="Q6" s="5411" t="n">
         <v>8.0</v>
       </c>
-      <c r="R6" s="5418"/>
+      <c r="R6" s="5415" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S6" s="5422"/>
       <c r="T6" s="5426"/>
       <c r="U6" s="5430"/>
@@ -7000,7 +6756,9 @@
       <c r="Q7" s="5535" t="n">
         <v>8.0</v>
       </c>
-      <c r="R7" s="5542"/>
+      <c r="R7" s="5539" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S7" s="5546"/>
       <c r="T7" s="5550"/>
       <c r="U7" s="5554"/>
@@ -7048,7 +6806,9 @@
       <c r="Q8" s="5659" t="n">
         <v>8.0</v>
       </c>
-      <c r="R8" s="5666"/>
+      <c r="R8" s="5663" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S8" s="5670"/>
       <c r="T8" s="5674"/>
       <c r="U8" s="5678"/>
@@ -7096,7 +6856,9 @@
       <c r="Q9" s="5783" t="n">
         <v>8.0</v>
       </c>
-      <c r="R9" s="5790"/>
+      <c r="R9" s="5787" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S9" s="5794"/>
       <c r="T9" s="5798"/>
       <c r="U9" s="5802"/>
@@ -7120,7 +6882,7 @@
       </c>
       <c r="B10" s="922" t="inlineStr">
         <is>
-          <t>Голод Иван Евгеньевич</t>
+          <t>Губайдулин Вадим Ринатович</t>
         </is>
       </c>
       <c r="C10" s="5854"/>
@@ -7144,7 +6906,9 @@
       <c r="Q10" s="5907" t="n">
         <v>8.0</v>
       </c>
-      <c r="R10" s="5914"/>
+      <c r="R10" s="5911" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S10" s="5918"/>
       <c r="T10" s="5922"/>
       <c r="U10" s="5926"/>
@@ -7168,7 +6932,7 @@
       </c>
       <c r="B11" s="1024" t="inlineStr">
         <is>
-          <t>Губайдулин Вадим Ринатович</t>
+          <t>Даниленко Никита Геннадьевич</t>
         </is>
       </c>
       <c r="C11" s="5978"/>
@@ -7192,7 +6956,9 @@
       <c r="Q11" s="6031" t="n">
         <v>8.0</v>
       </c>
-      <c r="R11" s="6038"/>
+      <c r="R11" s="6035" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S11" s="6042"/>
       <c r="T11" s="6046"/>
       <c r="U11" s="6050"/>
@@ -7216,7 +6982,7 @@
       </c>
       <c r="B12" s="1126" t="inlineStr">
         <is>
-          <t>Даниленко Никита Геннадьевич</t>
+          <t>Долгов Сергей Александрович</t>
         </is>
       </c>
       <c r="C12" s="6102"/>
@@ -7240,7 +7006,9 @@
       <c r="Q12" s="6155" t="n">
         <v>8.0</v>
       </c>
-      <c r="R12" s="6162"/>
+      <c r="R12" s="6159" t="n">
+        <v>8.0</v>
+      </c>
       <c r="S12" s="6166"/>
       <c r="T12" s="6170"/>
       <c r="U12" s="6174"/>
@@ -7259,99 +7027,75 @@
       <c r="AH12" s="1222"/>
     </row>
     <row r="13">
-      <c r="A13" s="1225" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B13" s="1228" t="inlineStr">
-        <is>
-          <t>Долгов Сергей Александрович</t>
-        </is>
-      </c>
-      <c r="C13" s="6226"/>
-      <c r="D13" s="6230"/>
-      <c r="E13" s="6234"/>
-      <c r="F13" s="6238"/>
-      <c r="G13" s="6242"/>
-      <c r="H13" s="6246"/>
-      <c r="I13" s="6250"/>
-      <c r="J13" s="6254"/>
-      <c r="K13" s="6258"/>
-      <c r="L13" s="6262"/>
-      <c r="M13" s="6266"/>
-      <c r="N13" s="6270"/>
-      <c r="O13" s="6271" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P13" s="6275" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q13" s="6279" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R13" s="6286"/>
-      <c r="S13" s="6290"/>
-      <c r="T13" s="6294"/>
-      <c r="U13" s="6298"/>
-      <c r="V13" s="6302"/>
-      <c r="W13" s="6306"/>
-      <c r="X13" s="6310"/>
-      <c r="Y13" s="6314"/>
-      <c r="Z13" s="6318"/>
-      <c r="AA13" s="6322"/>
-      <c r="AB13" s="6326"/>
-      <c r="AC13" s="6330"/>
-      <c r="AD13" s="6334"/>
-      <c r="AE13" s="6338"/>
-      <c r="AF13" s="6342"/>
-      <c r="AG13" s="6346"/>
+      <c r="A13" s="1225"/>
+      <c r="B13" s="1228"/>
+      <c r="C13" s="1231"/>
+      <c r="D13" s="1234"/>
+      <c r="E13" s="1237"/>
+      <c r="F13" s="1240"/>
+      <c r="G13" s="1243"/>
+      <c r="H13" s="1246"/>
+      <c r="I13" s="1249"/>
+      <c r="J13" s="1252"/>
+      <c r="K13" s="1255"/>
+      <c r="L13" s="1258"/>
+      <c r="M13" s="1261"/>
+      <c r="N13" s="1264"/>
+      <c r="O13" s="1267"/>
+      <c r="P13" s="1270"/>
+      <c r="Q13" s="1273"/>
+      <c r="R13" s="1276"/>
+      <c r="S13" s="1279"/>
+      <c r="T13" s="1282"/>
+      <c r="U13" s="1285"/>
+      <c r="V13" s="1288"/>
+      <c r="W13" s="1291"/>
+      <c r="X13" s="1294"/>
+      <c r="Y13" s="1297"/>
+      <c r="Z13" s="1300"/>
+      <c r="AA13" s="1303"/>
+      <c r="AB13" s="1306"/>
+      <c r="AC13" s="1309"/>
+      <c r="AD13" s="1312"/>
+      <c r="AE13" s="1315"/>
+      <c r="AF13" s="1318"/>
+      <c r="AG13" s="1321"/>
       <c r="AH13" s="1324"/>
     </row>
     <row r="14">
-      <c r="A14" s="1327" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B14" s="1330" t="inlineStr">
-        <is>
-          <t>Дугаева Мария Николаевна</t>
-        </is>
-      </c>
-      <c r="C14" s="6350"/>
-      <c r="D14" s="6354"/>
-      <c r="E14" s="6358"/>
-      <c r="F14" s="6362"/>
-      <c r="G14" s="6366"/>
-      <c r="H14" s="6370"/>
-      <c r="I14" s="6374"/>
-      <c r="J14" s="6378"/>
-      <c r="K14" s="6382"/>
-      <c r="L14" s="6386"/>
-      <c r="M14" s="6390"/>
-      <c r="N14" s="6394"/>
-      <c r="O14" s="6395" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="P14" s="6399" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Q14" s="6403" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R14" s="6410"/>
-      <c r="S14" s="6414"/>
-      <c r="T14" s="6418"/>
-      <c r="U14" s="6422"/>
-      <c r="V14" s="6426"/>
-      <c r="W14" s="6430"/>
-      <c r="X14" s="6434"/>
-      <c r="Y14" s="6438"/>
-      <c r="Z14" s="6442"/>
-      <c r="AA14" s="6446"/>
-      <c r="AB14" s="6450"/>
-      <c r="AC14" s="6454"/>
-      <c r="AD14" s="6458"/>
-      <c r="AE14" s="6462"/>
-      <c r="AF14" s="6466"/>
-      <c r="AG14" s="6470"/>
+      <c r="A14" s="1327"/>
+      <c r="B14" s="1330"/>
+      <c r="C14" s="1333"/>
+      <c r="D14" s="1336"/>
+      <c r="E14" s="1339"/>
+      <c r="F14" s="1342"/>
+      <c r="G14" s="1345"/>
+      <c r="H14" s="1348"/>
+      <c r="I14" s="1351"/>
+      <c r="J14" s="1354"/>
+      <c r="K14" s="1357"/>
+      <c r="L14" s="1360"/>
+      <c r="M14" s="1363"/>
+      <c r="N14" s="1366"/>
+      <c r="O14" s="1369"/>
+      <c r="P14" s="1372"/>
+      <c r="Q14" s="1375"/>
+      <c r="R14" s="1378"/>
+      <c r="S14" s="1381"/>
+      <c r="T14" s="1384"/>
+      <c r="U14" s="1387"/>
+      <c r="V14" s="1390"/>
+      <c r="W14" s="1393"/>
+      <c r="X14" s="1396"/>
+      <c r="Y14" s="1399"/>
+      <c r="Z14" s="1402"/>
+      <c r="AA14" s="1405"/>
+      <c r="AB14" s="1408"/>
+      <c r="AC14" s="1411"/>
+      <c r="AD14" s="1414"/>
+      <c r="AE14" s="1417"/>
+      <c r="AF14" s="1420"/>
+      <c r="AG14" s="1423"/>
       <c r="AH14" s="1426"/>
     </row>
     <row r="15">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -2983,8 +2983,10 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="1701" t="n">
-        <v>1.0</v>
+      <c r="C1" s="1701" t="inlineStr">
+        <is>
+          <t>Июль</t>
+        </is>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
@@ -3181,10 +3183,10 @@
       <c r="L4" s="1742"/>
       <c r="M4" s="1746"/>
       <c r="N4" s="1750"/>
-      <c r="O4" s="1751"/>
-      <c r="P4" s="1757"/>
-      <c r="Q4" s="1759"/>
-      <c r="R4" s="1763"/>
+      <c r="O4" s="1754"/>
+      <c r="P4" s="1758"/>
+      <c r="Q4" s="1762"/>
+      <c r="R4" s="1766"/>
       <c r="S4" s="1770"/>
       <c r="T4" s="1774"/>
       <c r="U4" s="1778"/>
@@ -3199,7 +3201,9 @@
       <c r="AD4" s="1814"/>
       <c r="AE4" s="1818"/>
       <c r="AF4" s="1822"/>
-      <c r="AG4" s="1826"/>
+      <c r="AG4" s="1823" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AH4" s="136"/>
     </row>
     <row r="5">
@@ -3223,10 +3227,10 @@
       <c r="L5" s="1866"/>
       <c r="M5" s="1870"/>
       <c r="N5" s="1874"/>
-      <c r="O5" s="1877"/>
-      <c r="P5" s="1881"/>
-      <c r="Q5" s="1883"/>
-      <c r="R5" s="1887"/>
+      <c r="O5" s="1878"/>
+      <c r="P5" s="1882"/>
+      <c r="Q5" s="1886"/>
+      <c r="R5" s="1890"/>
       <c r="S5" s="1894"/>
       <c r="T5" s="1898"/>
       <c r="U5" s="1902"/>
@@ -3241,7 +3245,9 @@
       <c r="AD5" s="1938"/>
       <c r="AE5" s="1942"/>
       <c r="AF5" s="1946"/>
-      <c r="AG5" s="1950"/>
+      <c r="AG5" s="1947" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AH5" s="170"/>
     </row>
     <row r="6">
@@ -3265,10 +3271,10 @@
       <c r="L6" s="1990"/>
       <c r="M6" s="1994"/>
       <c r="N6" s="1998"/>
-      <c r="O6" s="1999"/>
-      <c r="P6" s="2003"/>
-      <c r="Q6" s="2007"/>
-      <c r="R6" s="2011"/>
+      <c r="O6" s="2002"/>
+      <c r="P6" s="2006"/>
+      <c r="Q6" s="2010"/>
+      <c r="R6" s="2014"/>
       <c r="S6" s="2018"/>
       <c r="T6" s="2022"/>
       <c r="U6" s="2026"/>
@@ -3283,7 +3289,7 @@
       <c r="AD6" s="2062"/>
       <c r="AE6" s="2066"/>
       <c r="AF6" s="2070"/>
-      <c r="AG6" s="2074"/>
+      <c r="AG6" s="2073"/>
       <c r="AH6" s="204"/>
     </row>
     <row r="7">
@@ -3307,10 +3313,10 @@
       <c r="L7" s="2114"/>
       <c r="M7" s="2118"/>
       <c r="N7" s="2122"/>
-      <c r="O7" s="2123"/>
-      <c r="P7" s="2127"/>
-      <c r="Q7" s="2131"/>
-      <c r="R7" s="2135"/>
+      <c r="O7" s="2126"/>
+      <c r="P7" s="2130"/>
+      <c r="Q7" s="2134"/>
+      <c r="R7" s="2138"/>
       <c r="S7" s="2142"/>
       <c r="T7" s="2146"/>
       <c r="U7" s="2150"/>
@@ -3325,7 +3331,7 @@
       <c r="AD7" s="2186"/>
       <c r="AE7" s="2190"/>
       <c r="AF7" s="2194"/>
-      <c r="AG7" s="2198"/>
+      <c r="AG7" s="2196"/>
       <c r="AH7" s="238"/>
     </row>
     <row r="8">
@@ -3349,10 +3355,10 @@
       <c r="L8" s="2238"/>
       <c r="M8" s="2242"/>
       <c r="N8" s="2246"/>
-      <c r="O8" s="2247"/>
-      <c r="P8" s="2251"/>
-      <c r="Q8" s="2255"/>
-      <c r="R8" s="2259"/>
+      <c r="O8" s="2250"/>
+      <c r="P8" s="2254"/>
+      <c r="Q8" s="2258"/>
+      <c r="R8" s="2262"/>
       <c r="S8" s="2266"/>
       <c r="T8" s="2270"/>
       <c r="U8" s="2274"/>
@@ -3367,7 +3373,7 @@
       <c r="AD8" s="2310"/>
       <c r="AE8" s="2314"/>
       <c r="AF8" s="2318"/>
-      <c r="AG8" s="2322"/>
+      <c r="AG8" s="2320"/>
       <c r="AH8" s="272"/>
     </row>
     <row r="9">
@@ -3391,10 +3397,10 @@
       <c r="L9" s="2362"/>
       <c r="M9" s="2366"/>
       <c r="N9" s="2370"/>
-      <c r="O9" s="2371"/>
-      <c r="P9" s="2375"/>
-      <c r="Q9" s="2379"/>
-      <c r="R9" s="2383"/>
+      <c r="O9" s="2374"/>
+      <c r="P9" s="2378"/>
+      <c r="Q9" s="2382"/>
+      <c r="R9" s="2386"/>
       <c r="S9" s="2390"/>
       <c r="T9" s="2394"/>
       <c r="U9" s="2398"/>
@@ -3433,10 +3439,10 @@
       <c r="L10" s="2486"/>
       <c r="M10" s="2490"/>
       <c r="N10" s="2494"/>
-      <c r="O10" s="2495"/>
-      <c r="P10" s="2499"/>
-      <c r="Q10" s="2503"/>
-      <c r="R10" s="2507"/>
+      <c r="O10" s="2498"/>
+      <c r="P10" s="2502"/>
+      <c r="Q10" s="2506"/>
+      <c r="R10" s="2510"/>
       <c r="S10" s="2514"/>
       <c r="T10" s="2518"/>
       <c r="U10" s="2522"/>
@@ -3451,7 +3457,9 @@
       <c r="AD10" s="2558"/>
       <c r="AE10" s="2562"/>
       <c r="AF10" s="2566"/>
-      <c r="AG10" s="2570"/>
+      <c r="AG10" s="2567" t="n">
+        <v>3.0</v>
+      </c>
       <c r="AH10" s="340"/>
     </row>
     <row r="11">
@@ -3475,10 +3483,10 @@
       <c r="L11" s="2610"/>
       <c r="M11" s="2614"/>
       <c r="N11" s="2618"/>
-      <c r="O11" s="2619"/>
-      <c r="P11" s="2623"/>
-      <c r="Q11" s="2627"/>
-      <c r="R11" s="2631"/>
+      <c r="O11" s="2622"/>
+      <c r="P11" s="2626"/>
+      <c r="Q11" s="2630"/>
+      <c r="R11" s="2634"/>
       <c r="S11" s="2638"/>
       <c r="T11" s="2642"/>
       <c r="U11" s="2646"/>
@@ -3493,7 +3501,9 @@
       <c r="AD11" s="2682"/>
       <c r="AE11" s="2686"/>
       <c r="AF11" s="2690"/>
-      <c r="AG11" s="2694"/>
+      <c r="AG11" s="2691" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AH11" s="374"/>
     </row>
     <row r="12">
@@ -3517,10 +3527,10 @@
       <c r="L12" s="2734"/>
       <c r="M12" s="2738"/>
       <c r="N12" s="2742"/>
-      <c r="O12" s="2743"/>
-      <c r="P12" s="2747"/>
-      <c r="Q12" s="2751"/>
-      <c r="R12" s="2755"/>
+      <c r="O12" s="2746"/>
+      <c r="P12" s="2750"/>
+      <c r="Q12" s="2754"/>
+      <c r="R12" s="2758"/>
       <c r="S12" s="2762"/>
       <c r="T12" s="2766"/>
       <c r="U12" s="2770"/>
@@ -3535,7 +3545,9 @@
       <c r="AD12" s="2806"/>
       <c r="AE12" s="2810"/>
       <c r="AF12" s="2814"/>
-      <c r="AG12" s="2818"/>
+      <c r="AG12" s="2815" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AH12" s="408"/>
     </row>
     <row r="13">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Бригада техники" r:id="rId3" sheetId="1"/>
+    <sheet name="Бригада сборщики" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2819">
+  <cellXfs count="1827">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -1816,998 +1816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
@@ -2985,7 +1993,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="1701" t="inlineStr">
         <is>
-          <t>Июль</t>
+          <t>Август</t>
         </is>
       </c>
       <c r="D1" s="4"/>
@@ -3168,7 +2176,7 @@
       </c>
       <c r="B4" s="104" t="inlineStr">
         <is>
-          <t>Паньков Евгений Олегович</t>
+          <t>Петров Петр Петрович</t>
         </is>
       </c>
       <c r="C4" s="1706"/>
@@ -3186,7 +2194,7 @@
       <c r="O4" s="1754"/>
       <c r="P4" s="1758"/>
       <c r="Q4" s="1762"/>
-      <c r="R4" s="1766"/>
+      <c r="R4" s="1765"/>
       <c r="S4" s="1770"/>
       <c r="T4" s="1774"/>
       <c r="U4" s="1778"/>
@@ -3201,353 +2209,295 @@
       <c r="AD4" s="1814"/>
       <c r="AE4" s="1818"/>
       <c r="AF4" s="1822"/>
-      <c r="AG4" s="1823" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="AG4" s="1826"/>
       <c r="AH4" s="136"/>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="138" t="inlineStr">
-        <is>
-          <t>Марков Евгений Викторович</t>
-        </is>
-      </c>
-      <c r="C5" s="1830"/>
-      <c r="D5" s="1834"/>
-      <c r="E5" s="1838"/>
-      <c r="F5" s="1842"/>
-      <c r="G5" s="1846"/>
-      <c r="H5" s="1850"/>
-      <c r="I5" s="1854"/>
-      <c r="J5" s="1858"/>
-      <c r="K5" s="1862"/>
-      <c r="L5" s="1866"/>
-      <c r="M5" s="1870"/>
-      <c r="N5" s="1874"/>
-      <c r="O5" s="1878"/>
-      <c r="P5" s="1882"/>
-      <c r="Q5" s="1886"/>
-      <c r="R5" s="1890"/>
-      <c r="S5" s="1894"/>
-      <c r="T5" s="1898"/>
-      <c r="U5" s="1902"/>
-      <c r="V5" s="1906"/>
-      <c r="W5" s="1910"/>
-      <c r="X5" s="1914"/>
-      <c r="Y5" s="1918"/>
-      <c r="Z5" s="1922"/>
-      <c r="AA5" s="1926"/>
-      <c r="AB5" s="1930"/>
-      <c r="AC5" s="1934"/>
-      <c r="AD5" s="1938"/>
-      <c r="AE5" s="1942"/>
-      <c r="AF5" s="1946"/>
-      <c r="AG5" s="1947" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="169"/>
       <c r="AH5" s="170"/>
     </row>
     <row r="6">
-      <c r="A6" s="171" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="172" t="inlineStr">
-        <is>
-          <t>Слегин Руслан Игоревич</t>
-        </is>
-      </c>
-      <c r="C6" s="1954"/>
-      <c r="D6" s="1958"/>
-      <c r="E6" s="1962"/>
-      <c r="F6" s="1966"/>
-      <c r="G6" s="1970"/>
-      <c r="H6" s="1974"/>
-      <c r="I6" s="1978"/>
-      <c r="J6" s="1982"/>
-      <c r="K6" s="1986"/>
-      <c r="L6" s="1990"/>
-      <c r="M6" s="1994"/>
-      <c r="N6" s="1998"/>
-      <c r="O6" s="2002"/>
-      <c r="P6" s="2006"/>
-      <c r="Q6" s="2010"/>
-      <c r="R6" s="2014"/>
-      <c r="S6" s="2018"/>
-      <c r="T6" s="2022"/>
-      <c r="U6" s="2026"/>
-      <c r="V6" s="2030"/>
-      <c r="W6" s="2034"/>
-      <c r="X6" s="2038"/>
-      <c r="Y6" s="2042"/>
-      <c r="Z6" s="2046"/>
-      <c r="AA6" s="2050"/>
-      <c r="AB6" s="2054"/>
-      <c r="AC6" s="2058"/>
-      <c r="AD6" s="2062"/>
-      <c r="AE6" s="2066"/>
-      <c r="AF6" s="2070"/>
-      <c r="AG6" s="2073"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="199"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="202"/>
+      <c r="AG6" s="203"/>
       <c r="AH6" s="204"/>
     </row>
     <row r="7">
-      <c r="A7" s="205" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="206" t="inlineStr">
-        <is>
-          <t>Зуев Сергей Константинович</t>
-        </is>
-      </c>
-      <c r="C7" s="2078"/>
-      <c r="D7" s="2082"/>
-      <c r="E7" s="2086"/>
-      <c r="F7" s="2090"/>
-      <c r="G7" s="2094"/>
-      <c r="H7" s="2098"/>
-      <c r="I7" s="2102"/>
-      <c r="J7" s="2106"/>
-      <c r="K7" s="2110"/>
-      <c r="L7" s="2114"/>
-      <c r="M7" s="2118"/>
-      <c r="N7" s="2122"/>
-      <c r="O7" s="2126"/>
-      <c r="P7" s="2130"/>
-      <c r="Q7" s="2134"/>
-      <c r="R7" s="2138"/>
-      <c r="S7" s="2142"/>
-      <c r="T7" s="2146"/>
-      <c r="U7" s="2150"/>
-      <c r="V7" s="2154"/>
-      <c r="W7" s="2158"/>
-      <c r="X7" s="2162"/>
-      <c r="Y7" s="2166"/>
-      <c r="Z7" s="2170"/>
-      <c r="AA7" s="2174"/>
-      <c r="AB7" s="2178"/>
-      <c r="AC7" s="2182"/>
-      <c r="AD7" s="2186"/>
-      <c r="AE7" s="2190"/>
-      <c r="AF7" s="2194"/>
-      <c r="AG7" s="2196"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="225"/>
+      <c r="V7" s="226"/>
+      <c r="W7" s="227"/>
+      <c r="X7" s="228"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="231"/>
+      <c r="AB7" s="232"/>
+      <c r="AC7" s="233"/>
+      <c r="AD7" s="234"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="236"/>
+      <c r="AG7" s="237"/>
       <c r="AH7" s="238"/>
     </row>
     <row r="8">
-      <c r="A8" s="239" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="240" t="inlineStr">
-        <is>
-          <t>Абенд Евгений Сергеевич</t>
-        </is>
-      </c>
-      <c r="C8" s="2202"/>
-      <c r="D8" s="2206"/>
-      <c r="E8" s="2210"/>
-      <c r="F8" s="2214"/>
-      <c r="G8" s="2218"/>
-      <c r="H8" s="2222"/>
-      <c r="I8" s="2226"/>
-      <c r="J8" s="2230"/>
-      <c r="K8" s="2234"/>
-      <c r="L8" s="2238"/>
-      <c r="M8" s="2242"/>
-      <c r="N8" s="2246"/>
-      <c r="O8" s="2250"/>
-      <c r="P8" s="2254"/>
-      <c r="Q8" s="2258"/>
-      <c r="R8" s="2262"/>
-      <c r="S8" s="2266"/>
-      <c r="T8" s="2270"/>
-      <c r="U8" s="2274"/>
-      <c r="V8" s="2278"/>
-      <c r="W8" s="2282"/>
-      <c r="X8" s="2286"/>
-      <c r="Y8" s="2290"/>
-      <c r="Z8" s="2294"/>
-      <c r="AA8" s="2298"/>
-      <c r="AB8" s="2302"/>
-      <c r="AC8" s="2306"/>
-      <c r="AD8" s="2310"/>
-      <c r="AE8" s="2314"/>
-      <c r="AF8" s="2318"/>
-      <c r="AG8" s="2320"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="256"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="259"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="270"/>
+      <c r="AG8" s="271"/>
       <c r="AH8" s="272"/>
     </row>
     <row r="9">
-      <c r="A9" s="273" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="274" t="inlineStr">
-        <is>
-          <t>Болгаров Вениамин Владимирович</t>
-        </is>
-      </c>
-      <c r="C9" s="2326"/>
-      <c r="D9" s="2330"/>
-      <c r="E9" s="2334"/>
-      <c r="F9" s="2338"/>
-      <c r="G9" s="2342"/>
-      <c r="H9" s="2346"/>
-      <c r="I9" s="2350"/>
-      <c r="J9" s="2354"/>
-      <c r="K9" s="2358"/>
-      <c r="L9" s="2362"/>
-      <c r="M9" s="2366"/>
-      <c r="N9" s="2370"/>
-      <c r="O9" s="2374"/>
-      <c r="P9" s="2378"/>
-      <c r="Q9" s="2382"/>
-      <c r="R9" s="2386"/>
-      <c r="S9" s="2390"/>
-      <c r="T9" s="2394"/>
-      <c r="U9" s="2398"/>
-      <c r="V9" s="2402"/>
-      <c r="W9" s="2406"/>
-      <c r="X9" s="2410"/>
-      <c r="Y9" s="2414"/>
-      <c r="Z9" s="2418"/>
-      <c r="AA9" s="2422"/>
-      <c r="AB9" s="2426"/>
-      <c r="AC9" s="2430"/>
-      <c r="AD9" s="2434"/>
-      <c r="AE9" s="2438"/>
-      <c r="AF9" s="2442"/>
-      <c r="AG9" s="2446"/>
+      <c r="A9" s="273"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="298"/>
+      <c r="AA9" s="299"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="301"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="305"/>
       <c r="AH9" s="306"/>
     </row>
     <row r="10">
-      <c r="A10" s="307" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="308" t="inlineStr">
-        <is>
-          <t>Губайдулин Вадим Ринатович</t>
-        </is>
-      </c>
-      <c r="C10" s="2450"/>
-      <c r="D10" s="2454"/>
-      <c r="E10" s="2458"/>
-      <c r="F10" s="2462"/>
-      <c r="G10" s="2466"/>
-      <c r="H10" s="2470"/>
-      <c r="I10" s="2474"/>
-      <c r="J10" s="2478"/>
-      <c r="K10" s="2482"/>
-      <c r="L10" s="2486"/>
-      <c r="M10" s="2490"/>
-      <c r="N10" s="2494"/>
-      <c r="O10" s="2498"/>
-      <c r="P10" s="2502"/>
-      <c r="Q10" s="2506"/>
-      <c r="R10" s="2510"/>
-      <c r="S10" s="2514"/>
-      <c r="T10" s="2518"/>
-      <c r="U10" s="2522"/>
-      <c r="V10" s="2526"/>
-      <c r="W10" s="2530"/>
-      <c r="X10" s="2534"/>
-      <c r="Y10" s="2538"/>
-      <c r="Z10" s="2542"/>
-      <c r="AA10" s="2546"/>
-      <c r="AB10" s="2550"/>
-      <c r="AC10" s="2554"/>
-      <c r="AD10" s="2558"/>
-      <c r="AE10" s="2562"/>
-      <c r="AF10" s="2566"/>
-      <c r="AG10" s="2567" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="A10" s="307"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="312"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="316"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="320"/>
+      <c r="O10" s="321"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="323"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="325"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="327"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="329"/>
+      <c r="X10" s="330"/>
+      <c r="Y10" s="331"/>
+      <c r="Z10" s="332"/>
+      <c r="AA10" s="333"/>
+      <c r="AB10" s="334"/>
+      <c r="AC10" s="335"/>
+      <c r="AD10" s="336"/>
+      <c r="AE10" s="337"/>
+      <c r="AF10" s="338"/>
+      <c r="AG10" s="339"/>
       <c r="AH10" s="340"/>
     </row>
     <row r="11">
-      <c r="A11" s="341" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="342" t="inlineStr">
-        <is>
-          <t>Даниленко Никита Геннадьевич</t>
-        </is>
-      </c>
-      <c r="C11" s="2574"/>
-      <c r="D11" s="2578"/>
-      <c r="E11" s="2582"/>
-      <c r="F11" s="2586"/>
-      <c r="G11" s="2590"/>
-      <c r="H11" s="2594"/>
-      <c r="I11" s="2598"/>
-      <c r="J11" s="2602"/>
-      <c r="K11" s="2606"/>
-      <c r="L11" s="2610"/>
-      <c r="M11" s="2614"/>
-      <c r="N11" s="2618"/>
-      <c r="O11" s="2622"/>
-      <c r="P11" s="2626"/>
-      <c r="Q11" s="2630"/>
-      <c r="R11" s="2634"/>
-      <c r="S11" s="2638"/>
-      <c r="T11" s="2642"/>
-      <c r="U11" s="2646"/>
-      <c r="V11" s="2650"/>
-      <c r="W11" s="2654"/>
-      <c r="X11" s="2658"/>
-      <c r="Y11" s="2662"/>
-      <c r="Z11" s="2666"/>
-      <c r="AA11" s="2670"/>
-      <c r="AB11" s="2674"/>
-      <c r="AC11" s="2678"/>
-      <c r="AD11" s="2682"/>
-      <c r="AE11" s="2686"/>
-      <c r="AF11" s="2690"/>
-      <c r="AG11" s="2691" t="n">
-        <v>8.0</v>
-      </c>
+      <c r="A11" s="341"/>
+      <c r="B11" s="342"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="347"/>
+      <c r="H11" s="348"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="350"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="352"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="354"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="357"/>
+      <c r="R11" s="358"/>
+      <c r="S11" s="359"/>
+      <c r="T11" s="360"/>
+      <c r="U11" s="361"/>
+      <c r="V11" s="362"/>
+      <c r="W11" s="363"/>
+      <c r="X11" s="364"/>
+      <c r="Y11" s="365"/>
+      <c r="Z11" s="366"/>
+      <c r="AA11" s="367"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="369"/>
+      <c r="AD11" s="370"/>
+      <c r="AE11" s="371"/>
+      <c r="AF11" s="372"/>
+      <c r="AG11" s="373"/>
       <c r="AH11" s="374"/>
     </row>
     <row r="12">
-      <c r="A12" s="375" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="376" t="inlineStr">
-        <is>
-          <t>Долгов Сергей Александрович</t>
-        </is>
-      </c>
-      <c r="C12" s="2698"/>
-      <c r="D12" s="2702"/>
-      <c r="E12" s="2706"/>
-      <c r="F12" s="2710"/>
-      <c r="G12" s="2714"/>
-      <c r="H12" s="2718"/>
-      <c r="I12" s="2722"/>
-      <c r="J12" s="2726"/>
-      <c r="K12" s="2730"/>
-      <c r="L12" s="2734"/>
-      <c r="M12" s="2738"/>
-      <c r="N12" s="2742"/>
-      <c r="O12" s="2746"/>
-      <c r="P12" s="2750"/>
-      <c r="Q12" s="2754"/>
-      <c r="R12" s="2758"/>
-      <c r="S12" s="2762"/>
-      <c r="T12" s="2766"/>
-      <c r="U12" s="2770"/>
-      <c r="V12" s="2774"/>
-      <c r="W12" s="2778"/>
-      <c r="X12" s="2782"/>
-      <c r="Y12" s="2786"/>
-      <c r="Z12" s="2790"/>
-      <c r="AA12" s="2794"/>
-      <c r="AB12" s="2798"/>
-      <c r="AC12" s="2802"/>
-      <c r="AD12" s="2806"/>
-      <c r="AE12" s="2810"/>
-      <c r="AF12" s="2814"/>
-      <c r="AG12" s="2815" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A12" s="375"/>
+      <c r="B12" s="376"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="383"/>
+      <c r="J12" s="384"/>
+      <c r="K12" s="385"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="388"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="390"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="392"/>
+      <c r="S12" s="393"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="395"/>
+      <c r="V12" s="396"/>
+      <c r="W12" s="397"/>
+      <c r="X12" s="398"/>
+      <c r="Y12" s="399"/>
+      <c r="Z12" s="400"/>
+      <c r="AA12" s="401"/>
+      <c r="AB12" s="402"/>
+      <c r="AC12" s="403"/>
+      <c r="AD12" s="404"/>
+      <c r="AE12" s="405"/>
+      <c r="AF12" s="406"/>
+      <c r="AG12" s="407"/>
       <c r="AH12" s="408"/>
     </row>
     <row r="13">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -110,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2819">
+  <cellXfs count="1827">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -1816,998 +1816,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
@@ -2985,7 +1993,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="1701" t="inlineStr">
         <is>
-          <t>Январь</t>
+          <t>Август</t>
         </is>
       </c>
       <c r="D1" s="4"/>
@@ -3168,7 +2176,7 @@
       </c>
       <c r="B4" s="104" t="inlineStr">
         <is>
-          <t>Паньков Евгений Олегович</t>
+          <t>Марков Евгений Викторович</t>
         </is>
       </c>
       <c r="C4" s="1706"/>
@@ -3205,339 +2213,291 @@
       <c r="AH4" s="136"/>
     </row>
     <row r="5">
-      <c r="A5" s="137" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="138" t="inlineStr">
-        <is>
-          <t>Марков Евгений Викторович</t>
-        </is>
-      </c>
-      <c r="C5" s="1830"/>
-      <c r="D5" s="1834"/>
-      <c r="E5" s="1838"/>
-      <c r="F5" s="1842"/>
-      <c r="G5" s="1846"/>
-      <c r="H5" s="1850"/>
-      <c r="I5" s="1854"/>
-      <c r="J5" s="1858"/>
-      <c r="K5" s="1862"/>
-      <c r="L5" s="1866"/>
-      <c r="M5" s="1870"/>
-      <c r="N5" s="1874"/>
-      <c r="O5" s="1878"/>
-      <c r="P5" s="1882"/>
-      <c r="Q5" s="1886"/>
-      <c r="R5" s="1890"/>
-      <c r="S5" s="1894"/>
-      <c r="T5" s="1898"/>
-      <c r="U5" s="1902"/>
-      <c r="V5" s="1906"/>
-      <c r="W5" s="1910"/>
-      <c r="X5" s="1914"/>
-      <c r="Y5" s="1918"/>
-      <c r="Z5" s="1922"/>
-      <c r="AA5" s="1926"/>
-      <c r="AB5" s="1930"/>
-      <c r="AC5" s="1934"/>
-      <c r="AD5" s="1938"/>
-      <c r="AE5" s="1942"/>
-      <c r="AF5" s="1946"/>
-      <c r="AG5" s="1950"/>
+      <c r="A5" s="137"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="142"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="147"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="150"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="152"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="154"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="157"/>
+      <c r="V5" s="158"/>
+      <c r="W5" s="159"/>
+      <c r="X5" s="160"/>
+      <c r="Y5" s="161"/>
+      <c r="Z5" s="162"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="168"/>
+      <c r="AG5" s="169"/>
       <c r="AH5" s="170"/>
     </row>
     <row r="6">
-      <c r="A6" s="171" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="172" t="inlineStr">
-        <is>
-          <t>Слегин Руслан Игоревич</t>
-        </is>
-      </c>
-      <c r="C6" s="1954"/>
-      <c r="D6" s="1958"/>
-      <c r="E6" s="1962"/>
-      <c r="F6" s="1966"/>
-      <c r="G6" s="1970"/>
-      <c r="H6" s="1974"/>
-      <c r="I6" s="1978"/>
-      <c r="J6" s="1982"/>
-      <c r="K6" s="1986"/>
-      <c r="L6" s="1990"/>
-      <c r="M6" s="1994"/>
-      <c r="N6" s="1998"/>
-      <c r="O6" s="2002"/>
-      <c r="P6" s="2006"/>
-      <c r="Q6" s="2010"/>
-      <c r="R6" s="2014"/>
-      <c r="S6" s="2018"/>
-      <c r="T6" s="2022"/>
-      <c r="U6" s="2026"/>
-      <c r="V6" s="2030"/>
-      <c r="W6" s="2034"/>
-      <c r="X6" s="2038"/>
-      <c r="Y6" s="2042"/>
-      <c r="Z6" s="2046"/>
-      <c r="AA6" s="2050"/>
-      <c r="AB6" s="2054"/>
-      <c r="AC6" s="2058"/>
-      <c r="AD6" s="2062"/>
-      <c r="AE6" s="2066"/>
-      <c r="AF6" s="2070"/>
-      <c r="AG6" s="2074"/>
+      <c r="A6" s="171"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="175"/>
+      <c r="F6" s="176"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="179"/>
+      <c r="J6" s="180"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="182"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="185"/>
+      <c r="P6" s="186"/>
+      <c r="Q6" s="187"/>
+      <c r="R6" s="188"/>
+      <c r="S6" s="189"/>
+      <c r="T6" s="190"/>
+      <c r="U6" s="191"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="193"/>
+      <c r="X6" s="194"/>
+      <c r="Y6" s="195"/>
+      <c r="Z6" s="196"/>
+      <c r="AA6" s="197"/>
+      <c r="AB6" s="198"/>
+      <c r="AC6" s="199"/>
+      <c r="AD6" s="200"/>
+      <c r="AE6" s="201"/>
+      <c r="AF6" s="202"/>
+      <c r="AG6" s="203"/>
       <c r="AH6" s="204"/>
     </row>
     <row r="7">
-      <c r="A7" s="205" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B7" s="206" t="inlineStr">
-        <is>
-          <t>Зуев Сергей Константинович</t>
-        </is>
-      </c>
-      <c r="C7" s="2078"/>
-      <c r="D7" s="2082"/>
-      <c r="E7" s="2086"/>
-      <c r="F7" s="2090"/>
-      <c r="G7" s="2094"/>
-      <c r="H7" s="2098"/>
-      <c r="I7" s="2102"/>
-      <c r="J7" s="2106"/>
-      <c r="K7" s="2110"/>
-      <c r="L7" s="2114"/>
-      <c r="M7" s="2118"/>
-      <c r="N7" s="2122"/>
-      <c r="O7" s="2126"/>
-      <c r="P7" s="2130"/>
-      <c r="Q7" s="2134"/>
-      <c r="R7" s="2138"/>
-      <c r="S7" s="2142"/>
-      <c r="T7" s="2146"/>
-      <c r="U7" s="2150"/>
-      <c r="V7" s="2154"/>
-      <c r="W7" s="2158"/>
-      <c r="X7" s="2162"/>
-      <c r="Y7" s="2166"/>
-      <c r="Z7" s="2170"/>
-      <c r="AA7" s="2174"/>
-      <c r="AB7" s="2178"/>
-      <c r="AC7" s="2182"/>
-      <c r="AD7" s="2186"/>
-      <c r="AE7" s="2190"/>
-      <c r="AF7" s="2194"/>
-      <c r="AG7" s="2198"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="212"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="214"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="216"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="218"/>
+      <c r="O7" s="219"/>
+      <c r="P7" s="220"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="223"/>
+      <c r="T7" s="224"/>
+      <c r="U7" s="225"/>
+      <c r="V7" s="226"/>
+      <c r="W7" s="227"/>
+      <c r="X7" s="228"/>
+      <c r="Y7" s="229"/>
+      <c r="Z7" s="230"/>
+      <c r="AA7" s="231"/>
+      <c r="AB7" s="232"/>
+      <c r="AC7" s="233"/>
+      <c r="AD7" s="234"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="236"/>
+      <c r="AG7" s="237"/>
       <c r="AH7" s="238"/>
     </row>
     <row r="8">
-      <c r="A8" s="239" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B8" s="240" t="inlineStr">
-        <is>
-          <t>Абенд Евгений Сергеевич</t>
-        </is>
-      </c>
-      <c r="C8" s="2202"/>
-      <c r="D8" s="2206"/>
-      <c r="E8" s="2210"/>
-      <c r="F8" s="2214"/>
-      <c r="G8" s="2218"/>
-      <c r="H8" s="2222"/>
-      <c r="I8" s="2226"/>
-      <c r="J8" s="2230"/>
-      <c r="K8" s="2234"/>
-      <c r="L8" s="2238"/>
-      <c r="M8" s="2242"/>
-      <c r="N8" s="2246"/>
-      <c r="O8" s="2250"/>
-      <c r="P8" s="2254"/>
-      <c r="Q8" s="2258"/>
-      <c r="R8" s="2262"/>
-      <c r="S8" s="2266"/>
-      <c r="T8" s="2270"/>
-      <c r="U8" s="2274"/>
-      <c r="V8" s="2278"/>
-      <c r="W8" s="2282"/>
-      <c r="X8" s="2286"/>
-      <c r="Y8" s="2290"/>
-      <c r="Z8" s="2294"/>
-      <c r="AA8" s="2298"/>
-      <c r="AB8" s="2302"/>
-      <c r="AC8" s="2306"/>
-      <c r="AD8" s="2310"/>
-      <c r="AE8" s="2314"/>
-      <c r="AF8" s="2318"/>
-      <c r="AG8" s="2322"/>
+      <c r="A8" s="239"/>
+      <c r="B8" s="240"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="245"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="252"/>
+      <c r="O8" s="253"/>
+      <c r="P8" s="254"/>
+      <c r="Q8" s="255"/>
+      <c r="R8" s="256"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="259"/>
+      <c r="V8" s="260"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="265"/>
+      <c r="AB8" s="266"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="268"/>
+      <c r="AE8" s="269"/>
+      <c r="AF8" s="270"/>
+      <c r="AG8" s="271"/>
       <c r="AH8" s="272"/>
     </row>
     <row r="9">
-      <c r="A9" s="273" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B9" s="274" t="inlineStr">
-        <is>
-          <t>Болгаров Вениамин Владимирович</t>
-        </is>
-      </c>
-      <c r="C9" s="2326"/>
-      <c r="D9" s="2330"/>
-      <c r="E9" s="2334"/>
-      <c r="F9" s="2338"/>
-      <c r="G9" s="2342"/>
-      <c r="H9" s="2346"/>
-      <c r="I9" s="2350"/>
-      <c r="J9" s="2354"/>
-      <c r="K9" s="2358"/>
-      <c r="L9" s="2362"/>
-      <c r="M9" s="2366"/>
-      <c r="N9" s="2370"/>
-      <c r="O9" s="2374"/>
-      <c r="P9" s="2378"/>
-      <c r="Q9" s="2382"/>
-      <c r="R9" s="2386"/>
-      <c r="S9" s="2390"/>
-      <c r="T9" s="2394"/>
-      <c r="U9" s="2398"/>
-      <c r="V9" s="2402"/>
-      <c r="W9" s="2406"/>
-      <c r="X9" s="2410"/>
-      <c r="Y9" s="2414"/>
-      <c r="Z9" s="2418"/>
-      <c r="AA9" s="2422"/>
-      <c r="AB9" s="2426"/>
-      <c r="AC9" s="2430"/>
-      <c r="AD9" s="2434"/>
-      <c r="AE9" s="2438"/>
-      <c r="AF9" s="2442"/>
-      <c r="AG9" s="2446"/>
+      <c r="A9" s="273"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="275"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="296"/>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="298"/>
+      <c r="AA9" s="299"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="301"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="305"/>
       <c r="AH9" s="306"/>
     </row>
     <row r="10">
-      <c r="A10" s="307" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B10" s="308" t="inlineStr">
-        <is>
-          <t>Губайдулин Вадим Ринатович</t>
-        </is>
-      </c>
-      <c r="C10" s="2450"/>
-      <c r="D10" s="2454"/>
-      <c r="E10" s="2458"/>
-      <c r="F10" s="2462"/>
-      <c r="G10" s="2466"/>
-      <c r="H10" s="2470"/>
-      <c r="I10" s="2474"/>
-      <c r="J10" s="2478"/>
-      <c r="K10" s="2482"/>
-      <c r="L10" s="2486"/>
-      <c r="M10" s="2490"/>
-      <c r="N10" s="2494"/>
-      <c r="O10" s="2498"/>
-      <c r="P10" s="2502"/>
-      <c r="Q10" s="2506"/>
-      <c r="R10" s="2510"/>
-      <c r="S10" s="2514"/>
-      <c r="T10" s="2518"/>
-      <c r="U10" s="2522"/>
-      <c r="V10" s="2526"/>
-      <c r="W10" s="2530"/>
-      <c r="X10" s="2534"/>
-      <c r="Y10" s="2538"/>
-      <c r="Z10" s="2542"/>
-      <c r="AA10" s="2546"/>
-      <c r="AB10" s="2550"/>
-      <c r="AC10" s="2554"/>
-      <c r="AD10" s="2558"/>
-      <c r="AE10" s="2562"/>
-      <c r="AF10" s="2566"/>
-      <c r="AG10" s="2570"/>
+      <c r="A10" s="307"/>
+      <c r="B10" s="308"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="310"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="312"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="314"/>
+      <c r="I10" s="315"/>
+      <c r="J10" s="316"/>
+      <c r="K10" s="317"/>
+      <c r="L10" s="318"/>
+      <c r="M10" s="319"/>
+      <c r="N10" s="320"/>
+      <c r="O10" s="321"/>
+      <c r="P10" s="322"/>
+      <c r="Q10" s="323"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="325"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="327"/>
+      <c r="V10" s="328"/>
+      <c r="W10" s="329"/>
+      <c r="X10" s="330"/>
+      <c r="Y10" s="331"/>
+      <c r="Z10" s="332"/>
+      <c r="AA10" s="333"/>
+      <c r="AB10" s="334"/>
+      <c r="AC10" s="335"/>
+      <c r="AD10" s="336"/>
+      <c r="AE10" s="337"/>
+      <c r="AF10" s="338"/>
+      <c r="AG10" s="339"/>
       <c r="AH10" s="340"/>
     </row>
     <row r="11">
-      <c r="A11" s="341" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B11" s="342" t="inlineStr">
-        <is>
-          <t>Даниленко Никита Геннадьевич</t>
-        </is>
-      </c>
-      <c r="C11" s="2574"/>
-      <c r="D11" s="2578"/>
-      <c r="E11" s="2582"/>
-      <c r="F11" s="2586"/>
-      <c r="G11" s="2590"/>
-      <c r="H11" s="2594"/>
-      <c r="I11" s="2598"/>
-      <c r="J11" s="2602"/>
-      <c r="K11" s="2606"/>
-      <c r="L11" s="2610"/>
-      <c r="M11" s="2614"/>
-      <c r="N11" s="2618"/>
-      <c r="O11" s="2622"/>
-      <c r="P11" s="2626"/>
-      <c r="Q11" s="2630"/>
-      <c r="R11" s="2634"/>
-      <c r="S11" s="2638"/>
-      <c r="T11" s="2642"/>
-      <c r="U11" s="2646"/>
-      <c r="V11" s="2650"/>
-      <c r="W11" s="2654"/>
-      <c r="X11" s="2658"/>
-      <c r="Y11" s="2662"/>
-      <c r="Z11" s="2666"/>
-      <c r="AA11" s="2670"/>
-      <c r="AB11" s="2674"/>
-      <c r="AC11" s="2678"/>
-      <c r="AD11" s="2682"/>
-      <c r="AE11" s="2686"/>
-      <c r="AF11" s="2690"/>
-      <c r="AG11" s="2694"/>
+      <c r="A11" s="341"/>
+      <c r="B11" s="342"/>
+      <c r="C11" s="343"/>
+      <c r="D11" s="344"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="346"/>
+      <c r="G11" s="347"/>
+      <c r="H11" s="348"/>
+      <c r="I11" s="349"/>
+      <c r="J11" s="350"/>
+      <c r="K11" s="351"/>
+      <c r="L11" s="352"/>
+      <c r="M11" s="353"/>
+      <c r="N11" s="354"/>
+      <c r="O11" s="355"/>
+      <c r="P11" s="356"/>
+      <c r="Q11" s="357"/>
+      <c r="R11" s="358"/>
+      <c r="S11" s="359"/>
+      <c r="T11" s="360"/>
+      <c r="U11" s="361"/>
+      <c r="V11" s="362"/>
+      <c r="W11" s="363"/>
+      <c r="X11" s="364"/>
+      <c r="Y11" s="365"/>
+      <c r="Z11" s="366"/>
+      <c r="AA11" s="367"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="369"/>
+      <c r="AD11" s="370"/>
+      <c r="AE11" s="371"/>
+      <c r="AF11" s="372"/>
+      <c r="AG11" s="373"/>
       <c r="AH11" s="374"/>
     </row>
     <row r="12">
-      <c r="A12" s="375" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B12" s="376" t="inlineStr">
-        <is>
-          <t>Долгов Сергей Александрович</t>
-        </is>
-      </c>
-      <c r="C12" s="2698"/>
-      <c r="D12" s="2702"/>
-      <c r="E12" s="2706"/>
-      <c r="F12" s="2710"/>
-      <c r="G12" s="2714"/>
-      <c r="H12" s="2718"/>
-      <c r="I12" s="2722"/>
-      <c r="J12" s="2726"/>
-      <c r="K12" s="2730"/>
-      <c r="L12" s="2734"/>
-      <c r="M12" s="2738"/>
-      <c r="N12" s="2742"/>
-      <c r="O12" s="2746"/>
-      <c r="P12" s="2750"/>
-      <c r="Q12" s="2754"/>
-      <c r="R12" s="2758"/>
-      <c r="S12" s="2762"/>
-      <c r="T12" s="2766"/>
-      <c r="U12" s="2770"/>
-      <c r="V12" s="2774"/>
-      <c r="W12" s="2778"/>
-      <c r="X12" s="2782"/>
-      <c r="Y12" s="2786"/>
-      <c r="Z12" s="2790"/>
-      <c r="AA12" s="2794"/>
-      <c r="AB12" s="2798"/>
-      <c r="AC12" s="2802"/>
-      <c r="AD12" s="2806"/>
-      <c r="AE12" s="2810"/>
-      <c r="AF12" s="2814"/>
-      <c r="AG12" s="2818"/>
+      <c r="A12" s="375"/>
+      <c r="B12" s="376"/>
+      <c r="C12" s="377"/>
+      <c r="D12" s="378"/>
+      <c r="E12" s="379"/>
+      <c r="F12" s="380"/>
+      <c r="G12" s="381"/>
+      <c r="H12" s="382"/>
+      <c r="I12" s="383"/>
+      <c r="J12" s="384"/>
+      <c r="K12" s="385"/>
+      <c r="L12" s="386"/>
+      <c r="M12" s="387"/>
+      <c r="N12" s="388"/>
+      <c r="O12" s="389"/>
+      <c r="P12" s="390"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="392"/>
+      <c r="S12" s="393"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="395"/>
+      <c r="V12" s="396"/>
+      <c r="W12" s="397"/>
+      <c r="X12" s="398"/>
+      <c r="Y12" s="399"/>
+      <c r="Z12" s="400"/>
+      <c r="AA12" s="401"/>
+      <c r="AB12" s="402"/>
+      <c r="AC12" s="403"/>
+      <c r="AD12" s="404"/>
+      <c r="AE12" s="405"/>
+      <c r="AF12" s="406"/>
+      <c r="AG12" s="407"/>
       <c r="AH12" s="408"/>
     </row>
     <row r="13">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -30,6 +30,34 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -122,8 +150,246 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1084">
+  <cellXfs count="2329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
@@ -1090,131 +1356,1152 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1266,7 +2553,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="579" t="inlineStr">
+      <c r="C1" s="817" t="inlineStr">
         <is>
           <t>Август</t>
         </is>
@@ -1301,7 +2588,7 @@
       <c r="AE1" s="31"/>
       <c r="AF1" s="32"/>
       <c r="AG1" s="33"/>
-      <c r="AH1" s="580" t="inlineStr">
+      <c r="AH1" s="818" t="inlineStr">
         <is>
           <t>Итого часов</t>
         </is>
@@ -1344,114 +2631,114 @@
       <c r="AH2" s="68"/>
     </row>
     <row r="3">
-      <c r="A3" s="579" t="inlineStr">
+      <c r="A3" s="817" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
       <c r="B3" s="70"/>
-      <c r="C3" s="579" t="n">
+      <c r="C3" s="817" t="n">
         <v>1.0</v>
       </c>
-      <c r="D3" s="579" t="n">
+      <c r="D3" s="817" t="n">
         <v>2.0</v>
       </c>
-      <c r="E3" s="579" t="n">
+      <c r="E3" s="817" t="n">
         <v>3.0</v>
       </c>
-      <c r="F3" s="579" t="n">
+      <c r="F3" s="817" t="n">
         <v>4.0</v>
       </c>
-      <c r="G3" s="579" t="n">
+      <c r="G3" s="817" t="n">
         <v>5.0</v>
       </c>
-      <c r="H3" s="579" t="n">
+      <c r="H3" s="817" t="n">
         <v>6.0</v>
       </c>
-      <c r="I3" s="579" t="n">
+      <c r="I3" s="817" t="n">
         <v>7.0</v>
       </c>
-      <c r="J3" s="579" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="K3" s="579" t="n">
+      <c r="J3" s="817" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="K3" s="817" t="n">
         <v>9.0</v>
       </c>
-      <c r="L3" s="579" t="n">
+      <c r="L3" s="817" t="n">
         <v>10.0</v>
       </c>
-      <c r="M3" s="579" t="n">
+      <c r="M3" s="817" t="n">
         <v>11.0</v>
       </c>
-      <c r="N3" s="579" t="n">
+      <c r="N3" s="817" t="n">
         <v>12.0</v>
       </c>
-      <c r="O3" s="579" t="n">
+      <c r="O3" s="817" t="n">
         <v>13.0</v>
       </c>
-      <c r="P3" s="579" t="n">
+      <c r="P3" s="817" t="n">
         <v>14.0</v>
       </c>
-      <c r="Q3" s="579" t="n">
+      <c r="Q3" s="817" t="n">
         <v>15.0</v>
       </c>
-      <c r="R3" s="579" t="n">
+      <c r="R3" s="817" t="n">
         <v>16.0</v>
       </c>
-      <c r="S3" s="579" t="n">
+      <c r="S3" s="817" t="n">
         <v>17.0</v>
       </c>
-      <c r="T3" s="579" t="n">
+      <c r="T3" s="817" t="n">
         <v>18.0</v>
       </c>
-      <c r="U3" s="579" t="n">
+      <c r="U3" s="817" t="n">
         <v>19.0</v>
       </c>
-      <c r="V3" s="579" t="n">
+      <c r="V3" s="817" t="n">
         <v>20.0</v>
       </c>
-      <c r="W3" s="579" t="n">
+      <c r="W3" s="817" t="n">
         <v>21.0</v>
       </c>
-      <c r="X3" s="579" t="n">
+      <c r="X3" s="817" t="n">
         <v>22.0</v>
       </c>
-      <c r="Y3" s="579" t="n">
+      <c r="Y3" s="817" t="n">
         <v>23.0</v>
       </c>
-      <c r="Z3" s="579" t="n">
+      <c r="Z3" s="817" t="n">
         <v>24.0</v>
       </c>
-      <c r="AA3" s="579" t="n">
+      <c r="AA3" s="817" t="n">
         <v>25.0</v>
       </c>
-      <c r="AB3" s="579" t="n">
+      <c r="AB3" s="817" t="n">
         <v>26.0</v>
       </c>
-      <c r="AC3" s="579" t="n">
+      <c r="AC3" s="817" t="n">
         <v>27.0</v>
       </c>
-      <c r="AD3" s="579" t="n">
+      <c r="AD3" s="817" t="n">
         <v>28.0</v>
       </c>
-      <c r="AE3" s="579" t="n">
+      <c r="AE3" s="817" t="n">
         <v>29.0</v>
       </c>
-      <c r="AF3" s="579" t="n">
+      <c r="AF3" s="817" t="n">
         <v>30.0</v>
       </c>
-      <c r="AG3" s="579" t="n">
+      <c r="AG3" s="817" t="n">
         <v>31.0</v>
       </c>
       <c r="AH3" s="102"/>
     </row>
     <row r="4">
-      <c r="A4" s="581" t="inlineStr">
+      <c r="A4" s="819" t="inlineStr">
         <is>
           <t>Бригада монтажники</t>
         </is>
       </c>
-      <c r="B4" s="582"/>
+      <c r="B4" s="820"/>
       <c r="C4" s="105"/>
       <c r="D4" s="106"/>
       <c r="E4" s="107"/>
@@ -1486,7 +2773,7 @@
       <c r="AH4" s="136"/>
     </row>
     <row r="5">
-      <c r="A5" s="583" t="inlineStr">
+      <c r="A5" s="821" t="inlineStr">
         <is>
           <t>Волна 1</t>
         </is>
@@ -1526,7 +2813,7 @@
       <c r="AH5" s="170"/>
     </row>
     <row r="6">
-      <c r="A6" s="584" t="n">
+      <c r="A6" s="822" t="n">
         <v>1.0</v>
       </c>
       <c r="B6" s="172" t="inlineStr">
@@ -1534,173 +2821,205 @@
           <t>m1 m1 m1</t>
         </is>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="592"/>
-      <c r="E6" s="596"/>
-      <c r="F6" s="600"/>
-      <c r="G6" s="604"/>
-      <c r="H6" s="608"/>
-      <c r="I6" s="612"/>
-      <c r="J6" s="616"/>
-      <c r="K6" s="620"/>
-      <c r="L6" s="624"/>
-      <c r="M6" s="628"/>
-      <c r="N6" s="632"/>
-      <c r="O6" s="636"/>
-      <c r="P6" s="640"/>
-      <c r="Q6" s="644"/>
-      <c r="R6" s="648"/>
-      <c r="S6" s="652"/>
-      <c r="T6" s="656"/>
-      <c r="U6" s="660"/>
-      <c r="V6" s="664"/>
-      <c r="W6" s="668"/>
-      <c r="X6" s="672"/>
-      <c r="Y6" s="673"/>
-      <c r="Z6" s="680"/>
-      <c r="AA6" s="684"/>
-      <c r="AB6" s="688"/>
-      <c r="AC6" s="692"/>
-      <c r="AD6" s="696"/>
-      <c r="AE6" s="700"/>
-      <c r="AF6" s="704"/>
-      <c r="AG6" s="708"/>
-      <c r="AH6" s="204"/>
+      <c r="C6" s="823" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D6" s="827" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E6" s="832"/>
+      <c r="F6" s="838"/>
+      <c r="G6" s="842"/>
+      <c r="H6" s="846"/>
+      <c r="I6" s="850"/>
+      <c r="J6" s="854"/>
+      <c r="K6" s="858"/>
+      <c r="L6" s="862"/>
+      <c r="M6" s="866"/>
+      <c r="N6" s="870"/>
+      <c r="O6" s="874"/>
+      <c r="P6" s="878"/>
+      <c r="Q6" s="882"/>
+      <c r="R6" s="886"/>
+      <c r="S6" s="890"/>
+      <c r="T6" s="894"/>
+      <c r="U6" s="898"/>
+      <c r="V6" s="902"/>
+      <c r="W6" s="906"/>
+      <c r="X6" s="907" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Y6" s="913"/>
+      <c r="Z6" s="915" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA6" s="922"/>
+      <c r="AB6" s="926"/>
+      <c r="AC6" s="930"/>
+      <c r="AD6" s="934"/>
+      <c r="AE6" s="938"/>
+      <c r="AF6" s="942"/>
+      <c r="AG6" s="946"/>
+      <c r="AH6" s="204" t="n">
+        <v>27.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="709" t="n">
+      <c r="A7" s="947" t="n">
         <v>2.0</v>
       </c>
       <c r="B7" s="206" t="inlineStr">
         <is>
-          <t>m2 m2 m2</t>
+          <t>s1 s1 s1</t>
         </is>
       </c>
-      <c r="C7" s="713"/>
-      <c r="D7" s="717"/>
-      <c r="E7" s="721"/>
-      <c r="F7" s="725"/>
-      <c r="G7" s="729"/>
-      <c r="H7" s="733"/>
-      <c r="I7" s="737"/>
-      <c r="J7" s="741"/>
-      <c r="K7" s="745"/>
-      <c r="L7" s="749"/>
-      <c r="M7" s="753"/>
-      <c r="N7" s="757"/>
-      <c r="O7" s="761"/>
-      <c r="P7" s="765"/>
-      <c r="Q7" s="769"/>
-      <c r="R7" s="773"/>
-      <c r="S7" s="777"/>
-      <c r="T7" s="781"/>
-      <c r="U7" s="785"/>
-      <c r="V7" s="789"/>
-      <c r="W7" s="793"/>
-      <c r="X7" s="795"/>
-      <c r="Y7" s="800"/>
-      <c r="Z7" s="805"/>
-      <c r="AA7" s="809"/>
-      <c r="AB7" s="813"/>
-      <c r="AC7" s="817"/>
-      <c r="AD7" s="821"/>
-      <c r="AE7" s="825"/>
-      <c r="AF7" s="829"/>
-      <c r="AG7" s="833"/>
-      <c r="AH7" s="238"/>
+      <c r="C7" s="948" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D7" s="952" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E7" s="956" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F7" s="963"/>
+      <c r="G7" s="967"/>
+      <c r="H7" s="971"/>
+      <c r="I7" s="975"/>
+      <c r="J7" s="979"/>
+      <c r="K7" s="983"/>
+      <c r="L7" s="987"/>
+      <c r="M7" s="991"/>
+      <c r="N7" s="995"/>
+      <c r="O7" s="999"/>
+      <c r="P7" s="1003"/>
+      <c r="Q7" s="1007"/>
+      <c r="R7" s="1011"/>
+      <c r="S7" s="1015"/>
+      <c r="T7" s="1019"/>
+      <c r="U7" s="1023"/>
+      <c r="V7" s="1027"/>
+      <c r="W7" s="1031"/>
+      <c r="X7" s="1035"/>
+      <c r="Y7" s="1039"/>
+      <c r="Z7" s="1043"/>
+      <c r="AA7" s="1047"/>
+      <c r="AB7" s="1051"/>
+      <c r="AC7" s="1055"/>
+      <c r="AD7" s="1059"/>
+      <c r="AE7" s="1063"/>
+      <c r="AF7" s="1067"/>
+      <c r="AG7" s="1071"/>
+      <c r="AH7" s="238" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="834" t="n">
+      <c r="A8" s="1072" t="n">
         <v>3.0</v>
       </c>
       <c r="B8" s="240" t="inlineStr">
         <is>
-          <t>m3 m3 m3</t>
+          <t>t1 t1 t1</t>
         </is>
       </c>
-      <c r="C8" s="838"/>
-      <c r="D8" s="842"/>
-      <c r="E8" s="846"/>
-      <c r="F8" s="850"/>
-      <c r="G8" s="854"/>
-      <c r="H8" s="858"/>
-      <c r="I8" s="862"/>
-      <c r="J8" s="866"/>
-      <c r="K8" s="870"/>
-      <c r="L8" s="874"/>
-      <c r="M8" s="878"/>
-      <c r="N8" s="882"/>
-      <c r="O8" s="886"/>
-      <c r="P8" s="890"/>
-      <c r="Q8" s="894"/>
-      <c r="R8" s="898"/>
-      <c r="S8" s="902"/>
-      <c r="T8" s="906"/>
-      <c r="U8" s="910"/>
-      <c r="V8" s="914"/>
-      <c r="W8" s="918"/>
-      <c r="X8" s="921"/>
-      <c r="Y8" s="924" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z8" s="930"/>
-      <c r="AA8" s="934"/>
-      <c r="AB8" s="938"/>
-      <c r="AC8" s="942"/>
-      <c r="AD8" s="946"/>
-      <c r="AE8" s="950"/>
-      <c r="AF8" s="954"/>
-      <c r="AG8" s="958"/>
-      <c r="AH8" s="272"/>
+      <c r="C8" s="1073" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D8" s="1077" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E8" s="1081" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F8" s="1088"/>
+      <c r="G8" s="1092"/>
+      <c r="H8" s="1096"/>
+      <c r="I8" s="1100"/>
+      <c r="J8" s="1104"/>
+      <c r="K8" s="1108"/>
+      <c r="L8" s="1112"/>
+      <c r="M8" s="1116"/>
+      <c r="N8" s="1120"/>
+      <c r="O8" s="1124"/>
+      <c r="P8" s="1128"/>
+      <c r="Q8" s="1132"/>
+      <c r="R8" s="1136"/>
+      <c r="S8" s="1140"/>
+      <c r="T8" s="1144"/>
+      <c r="U8" s="1148"/>
+      <c r="V8" s="1152"/>
+      <c r="W8" s="1156"/>
+      <c r="X8" s="1160"/>
+      <c r="Y8" s="1164"/>
+      <c r="Z8" s="1168"/>
+      <c r="AA8" s="1172"/>
+      <c r="AB8" s="1176"/>
+      <c r="AC8" s="1180"/>
+      <c r="AD8" s="1184"/>
+      <c r="AE8" s="1188"/>
+      <c r="AF8" s="1192"/>
+      <c r="AG8" s="1196"/>
+      <c r="AH8" s="272" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="959" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="274" t="inlineStr">
+      <c r="A9" s="1197" t="inlineStr">
         <is>
-          <t>m4 m4 m4</t>
+          <t>Итого на волне 1:</t>
         </is>
       </c>
-      <c r="C9" s="963"/>
-      <c r="D9" s="967"/>
-      <c r="E9" s="971"/>
-      <c r="F9" s="975"/>
-      <c r="G9" s="979"/>
-      <c r="H9" s="983"/>
-      <c r="I9" s="987"/>
-      <c r="J9" s="991"/>
-      <c r="K9" s="995"/>
-      <c r="L9" s="999"/>
-      <c r="M9" s="1003"/>
-      <c r="N9" s="1007"/>
-      <c r="O9" s="1011"/>
-      <c r="P9" s="1015"/>
-      <c r="Q9" s="1019"/>
-      <c r="R9" s="1023"/>
-      <c r="S9" s="1027"/>
-      <c r="T9" s="1031"/>
-      <c r="U9" s="1035"/>
-      <c r="V9" s="1039"/>
-      <c r="W9" s="1043"/>
-      <c r="X9" s="1047" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Y9" s="1048" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="Z9" s="1055"/>
-      <c r="AA9" s="1059"/>
-      <c r="AB9" s="1063"/>
-      <c r="AC9" s="1067"/>
-      <c r="AD9" s="1071"/>
-      <c r="AE9" s="1075"/>
-      <c r="AF9" s="1079"/>
-      <c r="AG9" s="1083"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="275" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="276" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E9" s="277" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279"/>
+      <c r="H9" s="280"/>
+      <c r="I9" s="281"/>
+      <c r="J9" s="282"/>
+      <c r="K9" s="283"/>
+      <c r="L9" s="284"/>
+      <c r="M9" s="285"/>
+      <c r="N9" s="286"/>
+      <c r="O9" s="287"/>
+      <c r="P9" s="288"/>
+      <c r="Q9" s="289"/>
+      <c r="R9" s="290"/>
+      <c r="S9" s="291"/>
+      <c r="T9" s="292"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="294"/>
+      <c r="W9" s="295"/>
+      <c r="X9" s="296" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y9" s="297"/>
+      <c r="Z9" s="298" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AA9" s="299"/>
+      <c r="AB9" s="300"/>
+      <c r="AC9" s="301"/>
+      <c r="AD9" s="302"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="304"/>
+      <c r="AG9" s="305"/>
       <c r="AH9" s="306"/>
     </row>
     <row r="10">
-      <c r="A10" s="307"/>
+      <c r="A10" s="1198" t="inlineStr">
+        <is>
+          <t>Волна 2</t>
+        </is>
+      </c>
       <c r="B10" s="308"/>
       <c r="C10" s="309"/>
       <c r="D10" s="310"/>
@@ -1736,119 +3055,173 @@
       <c r="AH10" s="340"/>
     </row>
     <row r="11">
-      <c r="A11" s="341"/>
-      <c r="B11" s="342"/>
-      <c r="C11" s="343"/>
-      <c r="D11" s="344"/>
-      <c r="E11" s="345"/>
-      <c r="F11" s="346"/>
-      <c r="G11" s="347"/>
-      <c r="H11" s="348"/>
-      <c r="I11" s="349"/>
-      <c r="J11" s="350"/>
-      <c r="K11" s="351"/>
-      <c r="L11" s="352"/>
-      <c r="M11" s="353"/>
-      <c r="N11" s="354"/>
-      <c r="O11" s="355"/>
-      <c r="P11" s="356"/>
-      <c r="Q11" s="357"/>
-      <c r="R11" s="358"/>
-      <c r="S11" s="359"/>
-      <c r="T11" s="360"/>
-      <c r="U11" s="361"/>
-      <c r="V11" s="362"/>
-      <c r="W11" s="363"/>
-      <c r="X11" s="364"/>
-      <c r="Y11" s="365"/>
-      <c r="Z11" s="366"/>
-      <c r="AA11" s="367"/>
-      <c r="AB11" s="368"/>
-      <c r="AC11" s="369"/>
-      <c r="AD11" s="370"/>
-      <c r="AE11" s="371"/>
-      <c r="AF11" s="372"/>
-      <c r="AG11" s="373"/>
-      <c r="AH11" s="374"/>
+      <c r="A11" s="1199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B11" s="342" t="inlineStr">
+        <is>
+          <t>m2 m2 m2</t>
+        </is>
+      </c>
+      <c r="C11" s="1200" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D11" s="1204" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E11" s="1208" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F11" s="1215"/>
+      <c r="G11" s="1219"/>
+      <c r="H11" s="1223"/>
+      <c r="I11" s="1227"/>
+      <c r="J11" s="1231"/>
+      <c r="K11" s="1235"/>
+      <c r="L11" s="1239"/>
+      <c r="M11" s="1243"/>
+      <c r="N11" s="1247"/>
+      <c r="O11" s="1251"/>
+      <c r="P11" s="1255"/>
+      <c r="Q11" s="1259"/>
+      <c r="R11" s="1263"/>
+      <c r="S11" s="1267"/>
+      <c r="T11" s="1271"/>
+      <c r="U11" s="1275"/>
+      <c r="V11" s="1279"/>
+      <c r="W11" s="1283"/>
+      <c r="X11" s="1285"/>
+      <c r="Y11" s="1289"/>
+      <c r="Z11" s="1292" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA11" s="1299"/>
+      <c r="AB11" s="1303"/>
+      <c r="AC11" s="1307"/>
+      <c r="AD11" s="1311"/>
+      <c r="AE11" s="1315"/>
+      <c r="AF11" s="1319"/>
+      <c r="AG11" s="1323"/>
+      <c r="AH11" s="374" t="n">
+        <v>32.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="375"/>
-      <c r="B12" s="376"/>
-      <c r="C12" s="377"/>
-      <c r="D12" s="378"/>
-      <c r="E12" s="379"/>
-      <c r="F12" s="380"/>
-      <c r="G12" s="381"/>
-      <c r="H12" s="382"/>
-      <c r="I12" s="383"/>
-      <c r="J12" s="384"/>
-      <c r="K12" s="385"/>
-      <c r="L12" s="386"/>
-      <c r="M12" s="387"/>
-      <c r="N12" s="388"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="390"/>
-      <c r="Q12" s="391"/>
-      <c r="R12" s="392"/>
-      <c r="S12" s="393"/>
-      <c r="T12" s="394"/>
-      <c r="U12" s="395"/>
-      <c r="V12" s="396"/>
-      <c r="W12" s="397"/>
-      <c r="X12" s="398"/>
-      <c r="Y12" s="399"/>
-      <c r="Z12" s="400"/>
-      <c r="AA12" s="401"/>
-      <c r="AB12" s="402"/>
-      <c r="AC12" s="403"/>
-      <c r="AD12" s="404"/>
-      <c r="AE12" s="405"/>
-      <c r="AF12" s="406"/>
-      <c r="AG12" s="407"/>
-      <c r="AH12" s="408"/>
+      <c r="A12" s="1324" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B12" s="376" t="inlineStr">
+        <is>
+          <t>s2 s2 s2</t>
+        </is>
+      </c>
+      <c r="C12" s="1325" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D12" s="1329" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E12" s="1333" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F12" s="1340"/>
+      <c r="G12" s="1344"/>
+      <c r="H12" s="1348"/>
+      <c r="I12" s="1352"/>
+      <c r="J12" s="1356"/>
+      <c r="K12" s="1360"/>
+      <c r="L12" s="1364"/>
+      <c r="M12" s="1368"/>
+      <c r="N12" s="1372"/>
+      <c r="O12" s="1376"/>
+      <c r="P12" s="1380"/>
+      <c r="Q12" s="1384"/>
+      <c r="R12" s="1388"/>
+      <c r="S12" s="1392"/>
+      <c r="T12" s="1396"/>
+      <c r="U12" s="1400"/>
+      <c r="V12" s="1404"/>
+      <c r="W12" s="1408"/>
+      <c r="X12" s="1412"/>
+      <c r="Y12" s="1416"/>
+      <c r="Z12" s="1420"/>
+      <c r="AA12" s="1424"/>
+      <c r="AB12" s="1428"/>
+      <c r="AC12" s="1432"/>
+      <c r="AD12" s="1436"/>
+      <c r="AE12" s="1440"/>
+      <c r="AF12" s="1444"/>
+      <c r="AG12" s="1448"/>
+      <c r="AH12" s="408" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="409"/>
-      <c r="B13" s="410"/>
-      <c r="C13" s="411"/>
-      <c r="D13" s="412"/>
-      <c r="E13" s="413"/>
-      <c r="F13" s="414"/>
-      <c r="G13" s="415"/>
-      <c r="H13" s="416"/>
-      <c r="I13" s="417"/>
-      <c r="J13" s="418"/>
-      <c r="K13" s="419"/>
-      <c r="L13" s="420"/>
-      <c r="M13" s="421"/>
-      <c r="N13" s="422"/>
-      <c r="O13" s="423"/>
-      <c r="P13" s="424"/>
-      <c r="Q13" s="425"/>
-      <c r="R13" s="426"/>
-      <c r="S13" s="427"/>
-      <c r="T13" s="428"/>
-      <c r="U13" s="429"/>
-      <c r="V13" s="430"/>
-      <c r="W13" s="431"/>
-      <c r="X13" s="432"/>
-      <c r="Y13" s="433"/>
-      <c r="Z13" s="434"/>
-      <c r="AA13" s="435"/>
-      <c r="AB13" s="436"/>
-      <c r="AC13" s="437"/>
-      <c r="AD13" s="438"/>
-      <c r="AE13" s="439"/>
-      <c r="AF13" s="440"/>
-      <c r="AG13" s="441"/>
-      <c r="AH13" s="442"/>
+      <c r="A13" s="1449" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B13" s="410" t="inlineStr">
+        <is>
+          <t>t2 t2 t1</t>
+        </is>
+      </c>
+      <c r="C13" s="1450" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D13" s="1454" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E13" s="1458" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F13" s="1465"/>
+      <c r="G13" s="1469"/>
+      <c r="H13" s="1473"/>
+      <c r="I13" s="1477"/>
+      <c r="J13" s="1481"/>
+      <c r="K13" s="1485"/>
+      <c r="L13" s="1489"/>
+      <c r="M13" s="1493"/>
+      <c r="N13" s="1497"/>
+      <c r="O13" s="1501"/>
+      <c r="P13" s="1505"/>
+      <c r="Q13" s="1509"/>
+      <c r="R13" s="1513"/>
+      <c r="S13" s="1517"/>
+      <c r="T13" s="1521"/>
+      <c r="U13" s="1525"/>
+      <c r="V13" s="1529"/>
+      <c r="W13" s="1533"/>
+      <c r="X13" s="1537"/>
+      <c r="Y13" s="1541"/>
+      <c r="Z13" s="1545"/>
+      <c r="AA13" s="1549"/>
+      <c r="AB13" s="1553"/>
+      <c r="AC13" s="1557"/>
+      <c r="AD13" s="1561"/>
+      <c r="AE13" s="1565"/>
+      <c r="AF13" s="1569"/>
+      <c r="AG13" s="1573"/>
+      <c r="AH13" s="442" t="n">
+        <v>24.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="443"/>
+      <c r="A14" s="1574" t="inlineStr">
+        <is>
+          <t>Итого на волне 2:</t>
+        </is>
+      </c>
       <c r="B14" s="444"/>
-      <c r="C14" s="445"/>
-      <c r="D14" s="446"/>
-      <c r="E14" s="447"/>
+      <c r="C14" s="445" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="446" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E14" s="447" t="n">
+        <v>3.0</v>
+      </c>
       <c r="F14" s="448"/>
       <c r="G14" s="449"/>
       <c r="H14" s="450"/>
@@ -1869,7 +3242,9 @@
       <c r="W14" s="465"/>
       <c r="X14" s="466"/>
       <c r="Y14" s="467"/>
-      <c r="Z14" s="468"/>
+      <c r="Z14" s="468" t="n">
+        <v>1.0</v>
+      </c>
       <c r="AA14" s="469"/>
       <c r="AB14" s="470"/>
       <c r="AC14" s="471"/>
@@ -1880,7 +3255,11 @@
       <c r="AH14" s="476"/>
     </row>
     <row r="15">
-      <c r="A15" s="477"/>
+      <c r="A15" s="1575" t="inlineStr">
+        <is>
+          <t>Волна 3</t>
+        </is>
+      </c>
       <c r="B15" s="478"/>
       <c r="C15" s="479"/>
       <c r="D15" s="480"/>
@@ -1916,76 +3295,452 @@
       <c r="AH15" s="510"/>
     </row>
     <row r="16">
-      <c r="A16" s="511"/>
-      <c r="B16" s="512"/>
-      <c r="C16" s="513"/>
-      <c r="D16" s="514"/>
-      <c r="E16" s="515"/>
-      <c r="F16" s="516"/>
-      <c r="G16" s="517"/>
-      <c r="H16" s="518"/>
-      <c r="I16" s="519"/>
-      <c r="J16" s="520"/>
-      <c r="K16" s="521"/>
-      <c r="L16" s="522"/>
-      <c r="M16" s="523"/>
-      <c r="N16" s="524"/>
-      <c r="O16" s="525"/>
-      <c r="P16" s="526"/>
-      <c r="Q16" s="527"/>
-      <c r="R16" s="528"/>
-      <c r="S16" s="529"/>
-      <c r="T16" s="530"/>
-      <c r="U16" s="531"/>
-      <c r="V16" s="532"/>
-      <c r="W16" s="533"/>
-      <c r="X16" s="534"/>
-      <c r="Y16" s="535"/>
-      <c r="Z16" s="536"/>
-      <c r="AA16" s="537"/>
-      <c r="AB16" s="538"/>
-      <c r="AC16" s="539"/>
-      <c r="AD16" s="540"/>
-      <c r="AE16" s="541"/>
-      <c r="AF16" s="542"/>
-      <c r="AG16" s="543"/>
-      <c r="AH16" s="544"/>
+      <c r="A16" s="1576" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B16" s="512" t="inlineStr">
+        <is>
+          <t>m3 m3 m3</t>
+        </is>
+      </c>
+      <c r="C16" s="1577" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D16" s="1581" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E16" s="1585" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F16" s="1592"/>
+      <c r="G16" s="1596"/>
+      <c r="H16" s="1600"/>
+      <c r="I16" s="1604"/>
+      <c r="J16" s="1608"/>
+      <c r="K16" s="1612"/>
+      <c r="L16" s="1616"/>
+      <c r="M16" s="1620"/>
+      <c r="N16" s="1624"/>
+      <c r="O16" s="1628"/>
+      <c r="P16" s="1632"/>
+      <c r="Q16" s="1636"/>
+      <c r="R16" s="1640"/>
+      <c r="S16" s="1644"/>
+      <c r="T16" s="1648"/>
+      <c r="U16" s="1652"/>
+      <c r="V16" s="1656"/>
+      <c r="W16" s="1660"/>
+      <c r="X16" s="1661" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Y16" s="1665" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z16" s="1672"/>
+      <c r="AA16" s="1676"/>
+      <c r="AB16" s="1680"/>
+      <c r="AC16" s="1684"/>
+      <c r="AD16" s="1688"/>
+      <c r="AE16" s="1692"/>
+      <c r="AF16" s="1696"/>
+      <c r="AG16" s="1700"/>
+      <c r="AH16" s="544" t="n">
+        <v>40.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="545"/>
-      <c r="B17" s="546"/>
-      <c r="C17" s="547"/>
-      <c r="D17" s="548"/>
-      <c r="E17" s="549"/>
-      <c r="F17" s="550"/>
-      <c r="G17" s="551"/>
-      <c r="H17" s="552"/>
-      <c r="I17" s="553"/>
-      <c r="J17" s="554"/>
-      <c r="K17" s="555"/>
-      <c r="L17" s="556"/>
-      <c r="M17" s="557"/>
-      <c r="N17" s="558"/>
-      <c r="O17" s="559"/>
-      <c r="P17" s="560"/>
-      <c r="Q17" s="561"/>
-      <c r="R17" s="562"/>
-      <c r="S17" s="563"/>
-      <c r="T17" s="564"/>
-      <c r="U17" s="565"/>
-      <c r="V17" s="566"/>
-      <c r="W17" s="567"/>
-      <c r="X17" s="568"/>
-      <c r="Y17" s="569"/>
-      <c r="Z17" s="570"/>
-      <c r="AA17" s="571"/>
-      <c r="AB17" s="572"/>
-      <c r="AC17" s="573"/>
-      <c r="AD17" s="574"/>
-      <c r="AE17" s="575"/>
-      <c r="AF17" s="576"/>
-      <c r="AG17" s="577"/>
-      <c r="AH17" s="578"/>
+      <c r="A17" s="1701" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B17" s="546" t="inlineStr">
+        <is>
+          <t>s3 s3 s3</t>
+        </is>
+      </c>
+      <c r="C17" s="1702" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D17" s="1706" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E17" s="1710" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F17" s="1717"/>
+      <c r="G17" s="1721"/>
+      <c r="H17" s="1725"/>
+      <c r="I17" s="1729"/>
+      <c r="J17" s="1733"/>
+      <c r="K17" s="1737"/>
+      <c r="L17" s="1741"/>
+      <c r="M17" s="1745"/>
+      <c r="N17" s="1749"/>
+      <c r="O17" s="1753"/>
+      <c r="P17" s="1757"/>
+      <c r="Q17" s="1761"/>
+      <c r="R17" s="1765"/>
+      <c r="S17" s="1769"/>
+      <c r="T17" s="1773"/>
+      <c r="U17" s="1777"/>
+      <c r="V17" s="1781"/>
+      <c r="W17" s="1785"/>
+      <c r="X17" s="1789"/>
+      <c r="Y17" s="1793"/>
+      <c r="Z17" s="1797"/>
+      <c r="AA17" s="1801"/>
+      <c r="AB17" s="1805"/>
+      <c r="AC17" s="1809"/>
+      <c r="AD17" s="1813"/>
+      <c r="AE17" s="1817"/>
+      <c r="AF17" s="1821"/>
+      <c r="AG17" s="1825"/>
+      <c r="AH17" s="578" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1826" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B18" s="580" t="inlineStr">
+        <is>
+          <t>t3 t3 t1</t>
+        </is>
+      </c>
+      <c r="C18" s="1827" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D18" s="1831" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E18" s="1835" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F18" s="1842"/>
+      <c r="G18" s="1846"/>
+      <c r="H18" s="1850"/>
+      <c r="I18" s="1854"/>
+      <c r="J18" s="1858"/>
+      <c r="K18" s="1862"/>
+      <c r="L18" s="1866"/>
+      <c r="M18" s="1870"/>
+      <c r="N18" s="1874"/>
+      <c r="O18" s="1878"/>
+      <c r="P18" s="1882"/>
+      <c r="Q18" s="1886"/>
+      <c r="R18" s="1890"/>
+      <c r="S18" s="1894"/>
+      <c r="T18" s="1898"/>
+      <c r="U18" s="1902"/>
+      <c r="V18" s="1906"/>
+      <c r="W18" s="1908"/>
+      <c r="X18" s="1914"/>
+      <c r="Y18" s="1918"/>
+      <c r="Z18" s="1922"/>
+      <c r="AA18" s="1926"/>
+      <c r="AB18" s="1930"/>
+      <c r="AC18" s="1934"/>
+      <c r="AD18" s="1938"/>
+      <c r="AE18" s="1942"/>
+      <c r="AF18" s="1946"/>
+      <c r="AG18" s="1950"/>
+      <c r="AH18" s="612" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1951" t="inlineStr">
+        <is>
+          <t>Итого на волне 3:</t>
+        </is>
+      </c>
+      <c r="B19" s="614"/>
+      <c r="C19" s="615" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D19" s="616" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E19" s="617" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F19" s="618"/>
+      <c r="G19" s="619"/>
+      <c r="H19" s="620"/>
+      <c r="I19" s="621"/>
+      <c r="J19" s="622"/>
+      <c r="K19" s="623"/>
+      <c r="L19" s="624"/>
+      <c r="M19" s="625"/>
+      <c r="N19" s="626"/>
+      <c r="O19" s="627"/>
+      <c r="P19" s="628"/>
+      <c r="Q19" s="629"/>
+      <c r="R19" s="630"/>
+      <c r="S19" s="631"/>
+      <c r="T19" s="632"/>
+      <c r="U19" s="633"/>
+      <c r="V19" s="634"/>
+      <c r="W19" s="635"/>
+      <c r="X19" s="636" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Y19" s="637" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z19" s="638"/>
+      <c r="AA19" s="639"/>
+      <c r="AB19" s="640"/>
+      <c r="AC19" s="641"/>
+      <c r="AD19" s="642"/>
+      <c r="AE19" s="643"/>
+      <c r="AF19" s="644"/>
+      <c r="AG19" s="645"/>
+      <c r="AH19" s="646"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1952" t="inlineStr">
+        <is>
+          <t>Волна 4</t>
+        </is>
+      </c>
+      <c r="B20" s="648"/>
+      <c r="C20" s="649"/>
+      <c r="D20" s="650"/>
+      <c r="E20" s="651"/>
+      <c r="F20" s="652"/>
+      <c r="G20" s="653"/>
+      <c r="H20" s="654"/>
+      <c r="I20" s="655"/>
+      <c r="J20" s="656"/>
+      <c r="K20" s="657"/>
+      <c r="L20" s="658"/>
+      <c r="M20" s="659"/>
+      <c r="N20" s="660"/>
+      <c r="O20" s="661"/>
+      <c r="P20" s="662"/>
+      <c r="Q20" s="663"/>
+      <c r="R20" s="664"/>
+      <c r="S20" s="665"/>
+      <c r="T20" s="666"/>
+      <c r="U20" s="667"/>
+      <c r="V20" s="668"/>
+      <c r="W20" s="669"/>
+      <c r="X20" s="670"/>
+      <c r="Y20" s="671"/>
+      <c r="Z20" s="672"/>
+      <c r="AA20" s="673"/>
+      <c r="AB20" s="674"/>
+      <c r="AC20" s="675"/>
+      <c r="AD20" s="676"/>
+      <c r="AE20" s="677"/>
+      <c r="AF20" s="678"/>
+      <c r="AG20" s="679"/>
+      <c r="AH20" s="680"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1953" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B21" s="682" t="inlineStr">
+        <is>
+          <t>m4 m4 m4</t>
+        </is>
+      </c>
+      <c r="C21" s="1954" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D21" s="1958" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E21" s="1962" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F21" s="1969"/>
+      <c r="G21" s="1973"/>
+      <c r="H21" s="1977"/>
+      <c r="I21" s="1981"/>
+      <c r="J21" s="1985"/>
+      <c r="K21" s="1989"/>
+      <c r="L21" s="1993"/>
+      <c r="M21" s="1997"/>
+      <c r="N21" s="2001"/>
+      <c r="O21" s="2005"/>
+      <c r="P21" s="2009"/>
+      <c r="Q21" s="2013"/>
+      <c r="R21" s="2017"/>
+      <c r="S21" s="2021"/>
+      <c r="T21" s="2025"/>
+      <c r="U21" s="2029"/>
+      <c r="V21" s="2033"/>
+      <c r="W21" s="2037"/>
+      <c r="X21" s="2040"/>
+      <c r="Y21" s="2042" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Z21" s="2049"/>
+      <c r="AA21" s="2053"/>
+      <c r="AB21" s="2057"/>
+      <c r="AC21" s="2061"/>
+      <c r="AD21" s="2065"/>
+      <c r="AE21" s="2069"/>
+      <c r="AF21" s="2073"/>
+      <c r="AG21" s="2077"/>
+      <c r="AH21" s="714" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2078" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B22" s="716" t="inlineStr">
+        <is>
+          <t>s4 s4 s4</t>
+        </is>
+      </c>
+      <c r="C22" s="2079" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D22" s="2083" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E22" s="2087" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="2094"/>
+      <c r="G22" s="2098"/>
+      <c r="H22" s="2102"/>
+      <c r="I22" s="2106"/>
+      <c r="J22" s="2110"/>
+      <c r="K22" s="2114"/>
+      <c r="L22" s="2118"/>
+      <c r="M22" s="2122"/>
+      <c r="N22" s="2126"/>
+      <c r="O22" s="2130"/>
+      <c r="P22" s="2134"/>
+      <c r="Q22" s="2138"/>
+      <c r="R22" s="2142"/>
+      <c r="S22" s="2146"/>
+      <c r="T22" s="2150"/>
+      <c r="U22" s="2154"/>
+      <c r="V22" s="2158"/>
+      <c r="W22" s="2162"/>
+      <c r="X22" s="2166"/>
+      <c r="Y22" s="2170"/>
+      <c r="Z22" s="2174"/>
+      <c r="AA22" s="2178"/>
+      <c r="AB22" s="2182"/>
+      <c r="AC22" s="2186"/>
+      <c r="AD22" s="2190"/>
+      <c r="AE22" s="2194"/>
+      <c r="AF22" s="2198"/>
+      <c r="AG22" s="2202"/>
+      <c r="AH22" s="748" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2203" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B23" s="750" t="inlineStr">
+        <is>
+          <t>t4 t4 t1</t>
+        </is>
+      </c>
+      <c r="C23" s="2204" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D23" s="2208" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E23" s="2212" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F23" s="2219"/>
+      <c r="G23" s="2223"/>
+      <c r="H23" s="2227"/>
+      <c r="I23" s="2231"/>
+      <c r="J23" s="2235"/>
+      <c r="K23" s="2239"/>
+      <c r="L23" s="2243"/>
+      <c r="M23" s="2247"/>
+      <c r="N23" s="2251"/>
+      <c r="O23" s="2255"/>
+      <c r="P23" s="2259"/>
+      <c r="Q23" s="2263"/>
+      <c r="R23" s="2267"/>
+      <c r="S23" s="2271"/>
+      <c r="T23" s="2275"/>
+      <c r="U23" s="2279"/>
+      <c r="V23" s="2283"/>
+      <c r="W23" s="2284" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="X23" s="2291"/>
+      <c r="Y23" s="2295"/>
+      <c r="Z23" s="2299"/>
+      <c r="AA23" s="2303"/>
+      <c r="AB23" s="2307"/>
+      <c r="AC23" s="2311"/>
+      <c r="AD23" s="2315"/>
+      <c r="AE23" s="2319"/>
+      <c r="AF23" s="2323"/>
+      <c r="AG23" s="2327"/>
+      <c r="AH23" s="782" t="n">
+        <v>32.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2328" t="inlineStr">
+        <is>
+          <t>Итого на волне 4:</t>
+        </is>
+      </c>
+      <c r="B24" s="784"/>
+      <c r="C24" s="785" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D24" s="786" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E24" s="787" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="788"/>
+      <c r="G24" s="789"/>
+      <c r="H24" s="790"/>
+      <c r="I24" s="791"/>
+      <c r="J24" s="792"/>
+      <c r="K24" s="793"/>
+      <c r="L24" s="794"/>
+      <c r="M24" s="795"/>
+      <c r="N24" s="796"/>
+      <c r="O24" s="797"/>
+      <c r="P24" s="798"/>
+      <c r="Q24" s="799"/>
+      <c r="R24" s="800"/>
+      <c r="S24" s="801"/>
+      <c r="T24" s="802"/>
+      <c r="U24" s="803"/>
+      <c r="V24" s="804"/>
+      <c r="W24" s="805" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="X24" s="806"/>
+      <c r="Y24" s="807" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Z24" s="808"/>
+      <c r="AA24" s="809"/>
+      <c r="AB24" s="810"/>
+      <c r="AC24" s="811"/>
+      <c r="AD24" s="812"/>
+      <c r="AE24" s="813"/>
+      <c r="AF24" s="814"/>
+      <c r="AG24" s="815"/>
+      <c r="AH24" s="816"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1995,6 +3750,13 @@
     <mergeCell ref="C1:AG2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -25736,13 +25736,15 @@
       <c r="J5" s="1282"/>
       <c r="K5" s="1289"/>
       <c r="L5" s="1296"/>
-      <c r="M5" s="1301" t="n">
+      <c r="M5" s="1303" t="n">
         <v>4.0</v>
       </c>
       <c r="N5" s="1310"/>
       <c r="O5" s="1317"/>
       <c r="P5" s="1324"/>
-      <c r="Q5" s="1331"/>
+      <c r="Q5" s="1328" t="n">
+        <v>10.0</v>
+      </c>
       <c r="R5" s="1338"/>
       <c r="S5" s="1345"/>
       <c r="T5" s="1352"/>
@@ -25760,7 +25762,7 @@
       <c r="AF5" s="1436"/>
       <c r="AG5" s="1443"/>
       <c r="AH5" s="170" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="6">
@@ -25782,11 +25784,15 @@
       <c r="J6" s="1500"/>
       <c r="K6" s="1507"/>
       <c r="L6" s="1514"/>
-      <c r="M6" s="1521"/>
+      <c r="M6" s="1518" t="n">
+        <v>10.0</v>
+      </c>
       <c r="N6" s="1528"/>
       <c r="O6" s="1535"/>
       <c r="P6" s="1542"/>
-      <c r="Q6" s="1549"/>
+      <c r="Q6" s="1546" t="n">
+        <v>9.0</v>
+      </c>
       <c r="R6" s="1556"/>
       <c r="S6" s="1563"/>
       <c r="T6" s="1570"/>
@@ -25803,7 +25809,9 @@
       <c r="AE6" s="1647"/>
       <c r="AF6" s="1654"/>
       <c r="AG6" s="1661"/>
-      <c r="AH6" s="204"/>
+      <c r="AH6" s="204" t="n">
+        <v>19.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1665" t="n">
@@ -25824,11 +25832,15 @@
       <c r="J7" s="1718"/>
       <c r="K7" s="1725"/>
       <c r="L7" s="1732"/>
-      <c r="M7" s="1739"/>
+      <c r="M7" s="1736" t="n">
+        <v>9.0</v>
+      </c>
       <c r="N7" s="1746"/>
       <c r="O7" s="1753"/>
       <c r="P7" s="1760"/>
-      <c r="Q7" s="1767"/>
+      <c r="Q7" s="1764" t="n">
+        <v>8.0</v>
+      </c>
       <c r="R7" s="1774"/>
       <c r="S7" s="1781"/>
       <c r="T7" s="1788"/>
@@ -25845,7 +25857,9 @@
       <c r="AE7" s="1865"/>
       <c r="AF7" s="1872"/>
       <c r="AG7" s="1879"/>
-      <c r="AH7" s="238"/>
+      <c r="AH7" s="238" t="n">
+        <v>17.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1883" t="n">
@@ -25866,7 +25880,9 @@
       <c r="J8" s="1936"/>
       <c r="K8" s="1943"/>
       <c r="L8" s="1950"/>
-      <c r="M8" s="1957"/>
+      <c r="M8" s="1954" t="n">
+        <v>8.0</v>
+      </c>
       <c r="N8" s="1964"/>
       <c r="O8" s="1971"/>
       <c r="P8" s="1978"/>
@@ -25887,7 +25903,9 @@
       <c r="AE8" s="2083"/>
       <c r="AF8" s="2090"/>
       <c r="AG8" s="2097"/>
-      <c r="AH8" s="272"/>
+      <c r="AH8" s="272" t="n">
+        <v>8.0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2101" t="n">
@@ -25912,7 +25930,7 @@
       <c r="N9" s="2182"/>
       <c r="O9" s="2189"/>
       <c r="P9" s="2196"/>
-      <c r="Q9" s="2203"/>
+      <c r="Q9" s="2202"/>
       <c r="R9" s="2210"/>
       <c r="S9" s="2217"/>
       <c r="T9" s="2224"/>
@@ -25950,11 +25968,11 @@
       <c r="J10" s="2372"/>
       <c r="K10" s="2379"/>
       <c r="L10" s="2386"/>
-      <c r="M10" s="2393"/>
+      <c r="M10" s="2392"/>
       <c r="N10" s="2400"/>
       <c r="O10" s="2407"/>
       <c r="P10" s="2414"/>
-      <c r="Q10" s="2421"/>
+      <c r="Q10" s="2419"/>
       <c r="R10" s="2428"/>
       <c r="S10" s="2435"/>
       <c r="T10" s="2442"/>
@@ -25992,7 +26010,7 @@
       <c r="J11" s="2590"/>
       <c r="K11" s="2597"/>
       <c r="L11" s="2604"/>
-      <c r="M11" s="2611"/>
+      <c r="M11" s="2609"/>
       <c r="N11" s="2618"/>
       <c r="O11" s="2625"/>
       <c r="P11" s="2632"/>
@@ -26034,11 +26052,11 @@
       <c r="J12" s="2808"/>
       <c r="K12" s="2815"/>
       <c r="L12" s="2822"/>
-      <c r="M12" s="2829"/>
+      <c r="M12" s="2831"/>
       <c r="N12" s="2836"/>
       <c r="O12" s="2843"/>
       <c r="P12" s="2850"/>
-      <c r="Q12" s="2857"/>
+      <c r="Q12" s="2859"/>
       <c r="R12" s="2864"/>
       <c r="S12" s="2871"/>
       <c r="T12" s="2878"/>
@@ -26076,11 +26094,11 @@
       <c r="J13" s="3026"/>
       <c r="K13" s="3033"/>
       <c r="L13" s="3040"/>
-      <c r="M13" s="3047"/>
+      <c r="M13" s="3048"/>
       <c r="N13" s="3054"/>
       <c r="O13" s="3061"/>
       <c r="P13" s="3068"/>
-      <c r="Q13" s="3075"/>
+      <c r="Q13" s="3076"/>
       <c r="R13" s="3082"/>
       <c r="S13" s="3089"/>
       <c r="T13" s="3096"/>
@@ -27041,12 +27059,14 @@
       <c r="K36" s="7832"/>
       <c r="L36" s="7839"/>
       <c r="M36" s="7846" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="N36" s="7853"/>
       <c r="O36" s="7860"/>
       <c r="P36" s="7867"/>
-      <c r="Q36" s="7874"/>
+      <c r="Q36" s="7874" t="n">
+        <v>3.0</v>
+      </c>
       <c r="R36" s="7881"/>
       <c r="S36" s="7888"/>
       <c r="T36" s="7895"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -25500,7 +25500,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="1225" t="inlineStr">
         <is>
-          <t>Июль</t>
+          <t>Февраль</t>
         </is>
       </c>
       <c r="D1" s="4"/>
@@ -25728,41 +25728,67 @@
       </c>
       <c r="C5" s="1233"/>
       <c r="D5" s="1240"/>
-      <c r="E5" s="1247"/>
-      <c r="F5" s="1254"/>
-      <c r="G5" s="1261"/>
-      <c r="H5" s="1268"/>
-      <c r="I5" s="1275"/>
+      <c r="E5" s="1244" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F5" s="1251" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G5" s="1258" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H5" s="1265" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I5" s="1272" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J5" s="1282"/>
       <c r="K5" s="1289"/>
-      <c r="L5" s="1296"/>
-      <c r="M5" s="1303" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N5" s="1310"/>
-      <c r="O5" s="1317"/>
-      <c r="P5" s="1324"/>
-      <c r="Q5" s="1328" t="n">
-        <v>10.0</v>
-      </c>
+      <c r="L5" s="1293" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M5" s="1300" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N5" s="1307" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O5" s="1319" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P5" s="1323"/>
+      <c r="Q5" s="1331"/>
       <c r="R5" s="1338"/>
-      <c r="S5" s="1345"/>
-      <c r="T5" s="1352"/>
-      <c r="U5" s="1359"/>
-      <c r="V5" s="1366"/>
-      <c r="W5" s="1373"/>
+      <c r="S5" s="1344"/>
+      <c r="T5" s="1351"/>
+      <c r="U5" s="1358"/>
+      <c r="V5" s="1365"/>
+      <c r="W5" s="1370" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X5" s="1380"/>
       <c r="Y5" s="1387"/>
-      <c r="Z5" s="1394"/>
-      <c r="AA5" s="1401"/>
-      <c r="AB5" s="1408"/>
-      <c r="AC5" s="1415"/>
-      <c r="AD5" s="1422"/>
+      <c r="Z5" s="1391" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA5" s="1398" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AB5" s="1405" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC5" s="1412" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD5" s="1424" t="n">
+        <v>7.0</v>
+      </c>
       <c r="AE5" s="1429"/>
       <c r="AF5" s="1436"/>
       <c r="AG5" s="1443"/>
       <c r="AH5" s="170" t="n">
-        <v>14.0</v>
+        <v>120.0</v>
       </c>
     </row>
     <row r="6">
@@ -25776,41 +25802,67 @@
       </c>
       <c r="C6" s="1451"/>
       <c r="D6" s="1458"/>
-      <c r="E6" s="1465"/>
-      <c r="F6" s="1472"/>
-      <c r="G6" s="1479"/>
-      <c r="H6" s="1486"/>
-      <c r="I6" s="1493"/>
+      <c r="E6" s="1463"/>
+      <c r="F6" s="1470"/>
+      <c r="G6" s="1477"/>
+      <c r="H6" s="1484"/>
+      <c r="I6" s="1491"/>
       <c r="J6" s="1500"/>
       <c r="K6" s="1507"/>
-      <c r="L6" s="1514"/>
+      <c r="L6" s="1511" t="n">
+        <v>8.0</v>
+      </c>
       <c r="M6" s="1518" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="N6" s="1528"/>
-      <c r="O6" s="1535"/>
-      <c r="P6" s="1542"/>
-      <c r="Q6" s="1546" t="n">
-        <v>9.0</v>
-      </c>
+        <v>8.0</v>
+      </c>
+      <c r="N6" s="1525" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O6" s="1532" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P6" s="1539" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q6" s="1549"/>
       <c r="R6" s="1556"/>
-      <c r="S6" s="1563"/>
-      <c r="T6" s="1570"/>
-      <c r="U6" s="1577"/>
-      <c r="V6" s="1584"/>
-      <c r="W6" s="1591"/>
+      <c r="S6" s="1560" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T6" s="1567" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U6" s="1574" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V6" s="1581" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W6" s="1588" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X6" s="1598"/>
       <c r="Y6" s="1605"/>
-      <c r="Z6" s="1612"/>
-      <c r="AA6" s="1619"/>
-      <c r="AB6" s="1626"/>
-      <c r="AC6" s="1633"/>
-      <c r="AD6" s="1640"/>
+      <c r="Z6" s="1609" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA6" s="1616" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB6" s="1623" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC6" s="1630" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AD6" s="1637" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE6" s="1647"/>
       <c r="AF6" s="1654"/>
       <c r="AG6" s="1661"/>
       <c r="AH6" s="204" t="n">
-        <v>19.0</v>
+        <v>121.0</v>
       </c>
     </row>
     <row r="7">
@@ -25824,41 +25876,77 @@
       </c>
       <c r="C7" s="1669"/>
       <c r="D7" s="1676"/>
-      <c r="E7" s="1683"/>
-      <c r="F7" s="1690"/>
-      <c r="G7" s="1697"/>
-      <c r="H7" s="1704"/>
-      <c r="I7" s="1711"/>
+      <c r="E7" s="1680" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F7" s="1687" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="1694" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H7" s="1701" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I7" s="1708" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J7" s="1718"/>
       <c r="K7" s="1725"/>
-      <c r="L7" s="1732"/>
+      <c r="L7" s="1729" t="n">
+        <v>8.0</v>
+      </c>
       <c r="M7" s="1736" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N7" s="1743" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O7" s="1750" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P7" s="1757" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q7" s="1767"/>
+      <c r="R7" s="1774"/>
+      <c r="S7" s="1783" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T7" s="1790" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="U7" s="1792" t="n">
         <v>9.0</v>
       </c>
-      <c r="N7" s="1746"/>
-      <c r="O7" s="1753"/>
-      <c r="P7" s="1760"/>
-      <c r="Q7" s="1764" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="R7" s="1774"/>
-      <c r="S7" s="1781"/>
-      <c r="T7" s="1788"/>
-      <c r="U7" s="1795"/>
-      <c r="V7" s="1802"/>
-      <c r="W7" s="1809"/>
+      <c r="V7" s="1804" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W7" s="1811" t="n">
+        <v>7.0</v>
+      </c>
       <c r="X7" s="1816"/>
       <c r="Y7" s="1823"/>
-      <c r="Z7" s="1830"/>
-      <c r="AA7" s="1837"/>
-      <c r="AB7" s="1844"/>
-      <c r="AC7" s="1851"/>
-      <c r="AD7" s="1858"/>
+      <c r="Z7" s="1827" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA7" s="1834" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB7" s="1841" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC7" s="1848" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD7" s="1855" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE7" s="1865"/>
       <c r="AF7" s="1872"/>
       <c r="AG7" s="1879"/>
       <c r="AH7" s="238" t="n">
-        <v>17.0</v>
+        <v>160.0</v>
       </c>
     </row>
     <row r="8">
@@ -25872,39 +25960,57 @@
       </c>
       <c r="C8" s="1887"/>
       <c r="D8" s="1894"/>
-      <c r="E8" s="1901"/>
-      <c r="F8" s="1908"/>
-      <c r="G8" s="1915"/>
-      <c r="H8" s="1922"/>
-      <c r="I8" s="1929"/>
+      <c r="E8" s="1899"/>
+      <c r="F8" s="1906"/>
+      <c r="G8" s="1913"/>
+      <c r="H8" s="1920"/>
+      <c r="I8" s="1927"/>
       <c r="J8" s="1936"/>
       <c r="K8" s="1943"/>
-      <c r="L8" s="1950"/>
-      <c r="M8" s="1954" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="N8" s="1964"/>
-      <c r="O8" s="1971"/>
-      <c r="P8" s="1978"/>
+      <c r="L8" s="1948"/>
+      <c r="M8" s="1955"/>
+      <c r="N8" s="1962"/>
+      <c r="O8" s="1969"/>
+      <c r="P8" s="1976"/>
       <c r="Q8" s="1985"/>
       <c r="R8" s="1992"/>
-      <c r="S8" s="1999"/>
-      <c r="T8" s="2006"/>
-      <c r="U8" s="2013"/>
-      <c r="V8" s="2020"/>
-      <c r="W8" s="2027"/>
+      <c r="S8" s="1996" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T8" s="2003" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U8" s="2010" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V8" s="2017" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W8" s="2024" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X8" s="2034"/>
       <c r="Y8" s="2041"/>
-      <c r="Z8" s="2048"/>
-      <c r="AA8" s="2055"/>
-      <c r="AB8" s="2062"/>
-      <c r="AC8" s="2069"/>
-      <c r="AD8" s="2076"/>
+      <c r="Z8" s="2045" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA8" s="2052" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB8" s="2059" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC8" s="2066" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD8" s="2073" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE8" s="2083"/>
       <c r="AF8" s="2090"/>
       <c r="AG8" s="2097"/>
       <c r="AH8" s="272" t="n">
-        <v>8.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="9">
@@ -25918,36 +26024,62 @@
       </c>
       <c r="C9" s="2105"/>
       <c r="D9" s="2112"/>
-      <c r="E9" s="2119"/>
-      <c r="F9" s="2126"/>
-      <c r="G9" s="2133"/>
-      <c r="H9" s="2140"/>
-      <c r="I9" s="2147"/>
+      <c r="E9" s="2116" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F9" s="2123" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G9" s="2130" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H9" s="2137" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I9" s="2144" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J9" s="2154"/>
       <c r="K9" s="2161"/>
-      <c r="L9" s="2168"/>
-      <c r="M9" s="2175"/>
-      <c r="N9" s="2182"/>
-      <c r="O9" s="2189"/>
-      <c r="P9" s="2196"/>
-      <c r="Q9" s="2202"/>
+      <c r="L9" s="2165" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M9" s="2172" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N9" s="2181"/>
+      <c r="O9" s="2188"/>
+      <c r="P9" s="2195"/>
+      <c r="Q9" s="2203"/>
       <c r="R9" s="2210"/>
-      <c r="S9" s="2217"/>
-      <c r="T9" s="2224"/>
-      <c r="U9" s="2231"/>
-      <c r="V9" s="2238"/>
-      <c r="W9" s="2245"/>
+      <c r="S9" s="2216"/>
+      <c r="T9" s="2223"/>
+      <c r="U9" s="2230"/>
+      <c r="V9" s="2237"/>
+      <c r="W9" s="2244"/>
       <c r="X9" s="2252"/>
       <c r="Y9" s="2259"/>
-      <c r="Z9" s="2266"/>
-      <c r="AA9" s="2273"/>
-      <c r="AB9" s="2280"/>
-      <c r="AC9" s="2287"/>
-      <c r="AD9" s="2294"/>
+      <c r="Z9" s="2263" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA9" s="2270" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB9" s="2277" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC9" s="2284" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD9" s="2291" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE9" s="2301"/>
       <c r="AF9" s="2308"/>
       <c r="AG9" s="2315"/>
-      <c r="AH9" s="306"/>
+      <c r="AH9" s="306" t="n">
+        <v>96.0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2319" t="n">
@@ -25960,36 +26092,78 @@
       </c>
       <c r="C10" s="2323"/>
       <c r="D10" s="2330"/>
-      <c r="E10" s="2337"/>
-      <c r="F10" s="2344"/>
-      <c r="G10" s="2351"/>
-      <c r="H10" s="2358"/>
-      <c r="I10" s="2365"/>
+      <c r="E10" s="2334" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F10" s="2341" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G10" s="2348" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H10" s="2355" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I10" s="2362" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J10" s="2372"/>
       <c r="K10" s="2379"/>
-      <c r="L10" s="2386"/>
-      <c r="M10" s="2392"/>
-      <c r="N10" s="2400"/>
-      <c r="O10" s="2407"/>
-      <c r="P10" s="2414"/>
-      <c r="Q10" s="2419"/>
+      <c r="L10" s="2383" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M10" s="2390" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N10" s="2397" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O10" s="2404" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P10" s="2411" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q10" s="2421"/>
       <c r="R10" s="2428"/>
-      <c r="S10" s="2435"/>
-      <c r="T10" s="2442"/>
-      <c r="U10" s="2449"/>
-      <c r="V10" s="2456"/>
-      <c r="W10" s="2463"/>
+      <c r="S10" s="2432" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T10" s="2439" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U10" s="2446" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V10" s="2453" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W10" s="2460" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X10" s="2470"/>
       <c r="Y10" s="2477"/>
-      <c r="Z10" s="2484"/>
-      <c r="AA10" s="2491"/>
-      <c r="AB10" s="2498"/>
-      <c r="AC10" s="2505"/>
-      <c r="AD10" s="2512"/>
+      <c r="Z10" s="2481" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA10" s="2488" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB10" s="2495" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC10" s="2502" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD10" s="2509" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE10" s="2519"/>
       <c r="AF10" s="2526"/>
       <c r="AG10" s="2533"/>
-      <c r="AH10" s="340"/>
+      <c r="AH10" s="340" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2537" t="n">
@@ -26002,36 +26176,78 @@
       </c>
       <c r="C11" s="2541"/>
       <c r="D11" s="2548"/>
-      <c r="E11" s="2555"/>
-      <c r="F11" s="2562"/>
-      <c r="G11" s="2569"/>
-      <c r="H11" s="2576"/>
-      <c r="I11" s="2583"/>
+      <c r="E11" s="2552" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F11" s="2559" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G11" s="2566" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H11" s="2573" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I11" s="2580" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J11" s="2590"/>
       <c r="K11" s="2597"/>
-      <c r="L11" s="2604"/>
-      <c r="M11" s="2609"/>
-      <c r="N11" s="2618"/>
-      <c r="O11" s="2625"/>
-      <c r="P11" s="2632"/>
+      <c r="L11" s="2601" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M11" s="2608" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N11" s="2615" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O11" s="2622" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P11" s="2629" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q11" s="2639"/>
       <c r="R11" s="2646"/>
-      <c r="S11" s="2653"/>
-      <c r="T11" s="2660"/>
-      <c r="U11" s="2667"/>
-      <c r="V11" s="2674"/>
-      <c r="W11" s="2681"/>
+      <c r="S11" s="2650" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T11" s="2657" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U11" s="2664" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V11" s="2671" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W11" s="2678" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X11" s="2688"/>
       <c r="Y11" s="2695"/>
-      <c r="Z11" s="2702"/>
-      <c r="AA11" s="2709"/>
-      <c r="AB11" s="2716"/>
-      <c r="AC11" s="2723"/>
-      <c r="AD11" s="2730"/>
+      <c r="Z11" s="2699" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA11" s="2706" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB11" s="2713" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC11" s="2720" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD11" s="2727" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE11" s="2737"/>
       <c r="AF11" s="2744"/>
       <c r="AG11" s="2751"/>
-      <c r="AH11" s="374"/>
+      <c r="AH11" s="374" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2755" t="n">
@@ -26044,36 +26260,78 @@
       </c>
       <c r="C12" s="2759"/>
       <c r="D12" s="2766"/>
-      <c r="E12" s="2773"/>
-      <c r="F12" s="2780"/>
-      <c r="G12" s="2787"/>
-      <c r="H12" s="2794"/>
-      <c r="I12" s="2801"/>
+      <c r="E12" s="2770" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F12" s="2777" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G12" s="2784" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H12" s="2791" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I12" s="2798" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J12" s="2808"/>
       <c r="K12" s="2815"/>
-      <c r="L12" s="2822"/>
-      <c r="M12" s="2831"/>
-      <c r="N12" s="2836"/>
-      <c r="O12" s="2843"/>
-      <c r="P12" s="2850"/>
-      <c r="Q12" s="2859"/>
+      <c r="L12" s="2819" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M12" s="2826" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N12" s="2833" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O12" s="2840" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P12" s="2847" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q12" s="2857"/>
       <c r="R12" s="2864"/>
-      <c r="S12" s="2871"/>
-      <c r="T12" s="2878"/>
-      <c r="U12" s="2885"/>
-      <c r="V12" s="2892"/>
-      <c r="W12" s="2899"/>
+      <c r="S12" s="2868" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T12" s="2875" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U12" s="2882" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V12" s="2889" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W12" s="2896" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X12" s="2906"/>
       <c r="Y12" s="2913"/>
-      <c r="Z12" s="2920"/>
-      <c r="AA12" s="2927"/>
-      <c r="AB12" s="2934"/>
-      <c r="AC12" s="2941"/>
-      <c r="AD12" s="2948"/>
+      <c r="Z12" s="2917" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA12" s="2924" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB12" s="2931" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC12" s="2938" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD12" s="2945" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE12" s="2955"/>
       <c r="AF12" s="2962"/>
       <c r="AG12" s="2969"/>
-      <c r="AH12" s="408"/>
+      <c r="AH12" s="408" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2973" t="n">
@@ -26086,36 +26344,78 @@
       </c>
       <c r="C13" s="2977"/>
       <c r="D13" s="2984"/>
-      <c r="E13" s="2991"/>
-      <c r="F13" s="2998"/>
-      <c r="G13" s="3005"/>
-      <c r="H13" s="3012"/>
-      <c r="I13" s="3019"/>
+      <c r="E13" s="2988" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F13" s="2995" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G13" s="3002" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H13" s="3009" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I13" s="3016" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J13" s="3026"/>
       <c r="K13" s="3033"/>
-      <c r="L13" s="3040"/>
-      <c r="M13" s="3048"/>
-      <c r="N13" s="3054"/>
-      <c r="O13" s="3061"/>
-      <c r="P13" s="3068"/>
-      <c r="Q13" s="3076"/>
+      <c r="L13" s="3037" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M13" s="3044" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N13" s="3051" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O13" s="3058" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P13" s="3065" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="Q13" s="3075"/>
       <c r="R13" s="3082"/>
-      <c r="S13" s="3089"/>
-      <c r="T13" s="3096"/>
-      <c r="U13" s="3103"/>
-      <c r="V13" s="3110"/>
-      <c r="W13" s="3117"/>
+      <c r="S13" s="3086" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T13" s="3093" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U13" s="3100" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V13" s="3107" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W13" s="3114" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X13" s="3124"/>
       <c r="Y13" s="3131"/>
-      <c r="Z13" s="3138"/>
-      <c r="AA13" s="3145"/>
-      <c r="AB13" s="3152"/>
-      <c r="AC13" s="3159"/>
-      <c r="AD13" s="3166"/>
+      <c r="Z13" s="3135" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA13" s="3142" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB13" s="3149" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC13" s="3156" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD13" s="3163" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE13" s="3173"/>
       <c r="AF13" s="3180"/>
       <c r="AG13" s="3187"/>
-      <c r="AH13" s="442"/>
+      <c r="AH13" s="442" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3191" t="n">
@@ -26128,36 +26428,58 @@
       </c>
       <c r="C14" s="3195"/>
       <c r="D14" s="3202"/>
-      <c r="E14" s="3209"/>
-      <c r="F14" s="3216"/>
-      <c r="G14" s="3223"/>
-      <c r="H14" s="3230"/>
-      <c r="I14" s="3237"/>
+      <c r="E14" s="3207"/>
+      <c r="F14" s="3214"/>
+      <c r="G14" s="3221"/>
+      <c r="H14" s="3228"/>
+      <c r="I14" s="3235"/>
       <c r="J14" s="3244"/>
       <c r="K14" s="3251"/>
-      <c r="L14" s="3258"/>
-      <c r="M14" s="3265"/>
-      <c r="N14" s="3272"/>
-      <c r="O14" s="3279"/>
-      <c r="P14" s="3286"/>
+      <c r="L14" s="3256"/>
+      <c r="M14" s="3263"/>
+      <c r="N14" s="3270"/>
+      <c r="O14" s="3277"/>
+      <c r="P14" s="3284"/>
       <c r="Q14" s="3293"/>
       <c r="R14" s="3300"/>
-      <c r="S14" s="3307"/>
-      <c r="T14" s="3314"/>
-      <c r="U14" s="3321"/>
-      <c r="V14" s="3328"/>
-      <c r="W14" s="3335"/>
+      <c r="S14" s="3304" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T14" s="3311" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U14" s="3318" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V14" s="3325" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W14" s="3337" t="n">
+        <v>7.0</v>
+      </c>
       <c r="X14" s="3342"/>
       <c r="Y14" s="3349"/>
-      <c r="Z14" s="3356"/>
-      <c r="AA14" s="3363"/>
-      <c r="AB14" s="3370"/>
-      <c r="AC14" s="3377"/>
-      <c r="AD14" s="3384"/>
+      <c r="Z14" s="3353" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA14" s="3365" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB14" s="3367" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC14" s="3374" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD14" s="3381" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE14" s="3391"/>
       <c r="AF14" s="3398"/>
       <c r="AG14" s="3405"/>
-      <c r="AH14" s="476"/>
+      <c r="AH14" s="476" t="n">
+        <v>80.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="3409" t="n">
@@ -26170,36 +26492,78 @@
       </c>
       <c r="C15" s="3413"/>
       <c r="D15" s="3420"/>
-      <c r="E15" s="3427"/>
-      <c r="F15" s="3434"/>
-      <c r="G15" s="3441"/>
-      <c r="H15" s="3448"/>
-      <c r="I15" s="3455"/>
+      <c r="E15" s="3424" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F15" s="3431" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G15" s="3438" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H15" s="3445" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I15" s="3452" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J15" s="3462"/>
       <c r="K15" s="3469"/>
-      <c r="L15" s="3476"/>
-      <c r="M15" s="3483"/>
-      <c r="N15" s="3490"/>
-      <c r="O15" s="3497"/>
-      <c r="P15" s="3504"/>
+      <c r="L15" s="3473" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M15" s="3480" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N15" s="3487" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O15" s="3494" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P15" s="3501" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q15" s="3511"/>
       <c r="R15" s="3518"/>
-      <c r="S15" s="3525"/>
-      <c r="T15" s="3532"/>
-      <c r="U15" s="3539"/>
-      <c r="V15" s="3546"/>
-      <c r="W15" s="3553"/>
+      <c r="S15" s="3522" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T15" s="3529" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U15" s="3536" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V15" s="3543" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W15" s="3550" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X15" s="3560"/>
       <c r="Y15" s="3567"/>
-      <c r="Z15" s="3574"/>
-      <c r="AA15" s="3581"/>
-      <c r="AB15" s="3588"/>
-      <c r="AC15" s="3595"/>
-      <c r="AD15" s="3602"/>
+      <c r="Z15" s="3571" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA15" s="3578" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB15" s="3585" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC15" s="3592" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD15" s="3599" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE15" s="3609"/>
       <c r="AF15" s="3616"/>
       <c r="AG15" s="3623"/>
-      <c r="AH15" s="510"/>
+      <c r="AH15" s="510" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="3627" t="n">
@@ -26212,36 +26576,78 @@
       </c>
       <c r="C16" s="3631"/>
       <c r="D16" s="3638"/>
-      <c r="E16" s="3645"/>
-      <c r="F16" s="3652"/>
-      <c r="G16" s="3659"/>
-      <c r="H16" s="3666"/>
-      <c r="I16" s="3673"/>
+      <c r="E16" s="3642" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F16" s="3649" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G16" s="3656" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H16" s="3663" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I16" s="3670" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J16" s="3680"/>
       <c r="K16" s="3687"/>
-      <c r="L16" s="3694"/>
-      <c r="M16" s="3701"/>
-      <c r="N16" s="3708"/>
-      <c r="O16" s="3715"/>
-      <c r="P16" s="3722"/>
+      <c r="L16" s="3691" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M16" s="3698" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N16" s="3705" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O16" s="3712" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P16" s="3719" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q16" s="3729"/>
       <c r="R16" s="3736"/>
-      <c r="S16" s="3743"/>
-      <c r="T16" s="3750"/>
-      <c r="U16" s="3757"/>
-      <c r="V16" s="3764"/>
-      <c r="W16" s="3771"/>
+      <c r="S16" s="3740" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T16" s="3747" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U16" s="3754" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V16" s="3761" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W16" s="3768" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X16" s="3778"/>
       <c r="Y16" s="3785"/>
-      <c r="Z16" s="3792"/>
-      <c r="AA16" s="3799"/>
-      <c r="AB16" s="3806"/>
-      <c r="AC16" s="3813"/>
-      <c r="AD16" s="3820"/>
+      <c r="Z16" s="3789" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA16" s="3796" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB16" s="3803" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC16" s="3810" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD16" s="3817" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE16" s="3827"/>
       <c r="AF16" s="3834"/>
       <c r="AG16" s="3841"/>
-      <c r="AH16" s="544"/>
+      <c r="AH16" s="544" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="3845" t="n">
@@ -26254,36 +26660,78 @@
       </c>
       <c r="C17" s="3849"/>
       <c r="D17" s="3856"/>
-      <c r="E17" s="3863"/>
-      <c r="F17" s="3870"/>
-      <c r="G17" s="3877"/>
-      <c r="H17" s="3884"/>
-      <c r="I17" s="3891"/>
+      <c r="E17" s="3860" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F17" s="3867" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G17" s="3874" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H17" s="3881" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I17" s="3888" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J17" s="3898"/>
       <c r="K17" s="3905"/>
-      <c r="L17" s="3912"/>
-      <c r="M17" s="3919"/>
-      <c r="N17" s="3926"/>
-      <c r="O17" s="3933"/>
-      <c r="P17" s="3940"/>
+      <c r="L17" s="3909" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M17" s="3916" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N17" s="3923" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O17" s="3930" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P17" s="3937" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q17" s="3947"/>
       <c r="R17" s="3954"/>
-      <c r="S17" s="3961"/>
-      <c r="T17" s="3968"/>
-      <c r="U17" s="3975"/>
-      <c r="V17" s="3982"/>
-      <c r="W17" s="3989"/>
+      <c r="S17" s="3958" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T17" s="3965" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U17" s="3972" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V17" s="3979" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W17" s="3986" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X17" s="3996"/>
       <c r="Y17" s="4003"/>
-      <c r="Z17" s="4010"/>
-      <c r="AA17" s="4017"/>
-      <c r="AB17" s="4024"/>
-      <c r="AC17" s="4031"/>
-      <c r="AD17" s="4038"/>
+      <c r="Z17" s="4007" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA17" s="4014" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB17" s="4021" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC17" s="4028" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD17" s="4035" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE17" s="4045"/>
       <c r="AF17" s="4052"/>
       <c r="AG17" s="4059"/>
-      <c r="AH17" s="578"/>
+      <c r="AH17" s="578" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4063" t="n">
@@ -26296,36 +26744,78 @@
       </c>
       <c r="C18" s="4067"/>
       <c r="D18" s="4074"/>
-      <c r="E18" s="4081"/>
-      <c r="F18" s="4088"/>
-      <c r="G18" s="4095"/>
-      <c r="H18" s="4102"/>
-      <c r="I18" s="4109"/>
+      <c r="E18" s="4078" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F18" s="4085" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G18" s="4092" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H18" s="4099" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I18" s="4106" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J18" s="4116"/>
       <c r="K18" s="4123"/>
-      <c r="L18" s="4130"/>
-      <c r="M18" s="4137"/>
-      <c r="N18" s="4144"/>
-      <c r="O18" s="4151"/>
-      <c r="P18" s="4158"/>
+      <c r="L18" s="4127" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M18" s="4134" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N18" s="4141" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O18" s="4148" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P18" s="4155" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q18" s="4165"/>
       <c r="R18" s="4172"/>
-      <c r="S18" s="4179"/>
-      <c r="T18" s="4186"/>
-      <c r="U18" s="4193"/>
-      <c r="V18" s="4200"/>
-      <c r="W18" s="4207"/>
+      <c r="S18" s="4176" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T18" s="4183" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U18" s="4190" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V18" s="4197" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W18" s="4204" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X18" s="4214"/>
       <c r="Y18" s="4221"/>
-      <c r="Z18" s="4228"/>
-      <c r="AA18" s="4235"/>
-      <c r="AB18" s="4242"/>
-      <c r="AC18" s="4249"/>
-      <c r="AD18" s="4256"/>
+      <c r="Z18" s="4225" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA18" s="4232" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB18" s="4239" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC18" s="4246" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD18" s="4253" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE18" s="4263"/>
       <c r="AF18" s="4270"/>
       <c r="AG18" s="4277"/>
-      <c r="AH18" s="612"/>
+      <c r="AH18" s="612" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4281" t="n">
@@ -26380,36 +26870,78 @@
       </c>
       <c r="C20" s="4503"/>
       <c r="D20" s="4510"/>
-      <c r="E20" s="4517"/>
-      <c r="F20" s="4524"/>
-      <c r="G20" s="4531"/>
-      <c r="H20" s="4538"/>
-      <c r="I20" s="4545"/>
+      <c r="E20" s="4514" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F20" s="4521" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G20" s="4528" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H20" s="4535" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I20" s="4542" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J20" s="4552"/>
       <c r="K20" s="4559"/>
-      <c r="L20" s="4566"/>
-      <c r="M20" s="4573"/>
-      <c r="N20" s="4580"/>
-      <c r="O20" s="4587"/>
-      <c r="P20" s="4594"/>
+      <c r="L20" s="4563" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M20" s="4570" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N20" s="4577" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O20" s="4584" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P20" s="4591" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q20" s="4601"/>
       <c r="R20" s="4608"/>
-      <c r="S20" s="4615"/>
-      <c r="T20" s="4622"/>
-      <c r="U20" s="4629"/>
-      <c r="V20" s="4636"/>
-      <c r="W20" s="4643"/>
+      <c r="S20" s="4612" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T20" s="4619" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U20" s="4626" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V20" s="4633" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W20" s="4640" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X20" s="4650"/>
       <c r="Y20" s="4657"/>
-      <c r="Z20" s="4664"/>
-      <c r="AA20" s="4671"/>
-      <c r="AB20" s="4678"/>
-      <c r="AC20" s="4685"/>
-      <c r="AD20" s="4692"/>
+      <c r="Z20" s="4661" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA20" s="4668" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB20" s="4675" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC20" s="4682" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD20" s="4689" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE20" s="4699"/>
       <c r="AF20" s="4706"/>
       <c r="AG20" s="4713"/>
-      <c r="AH20" s="680"/>
+      <c r="AH20" s="680" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4717" t="n">
@@ -26422,36 +26954,66 @@
       </c>
       <c r="C21" s="4721"/>
       <c r="D21" s="4728"/>
-      <c r="E21" s="4735"/>
-      <c r="F21" s="4742"/>
-      <c r="G21" s="4749"/>
-      <c r="H21" s="4756"/>
-      <c r="I21" s="4763"/>
+      <c r="E21" s="4732" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F21" s="4739" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G21" s="4746" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H21" s="4753" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I21" s="4760" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J21" s="4770"/>
       <c r="K21" s="4777"/>
-      <c r="L21" s="4784"/>
-      <c r="M21" s="4791"/>
-      <c r="N21" s="4798"/>
-      <c r="O21" s="4805"/>
-      <c r="P21" s="4812"/>
+      <c r="L21" s="4781" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M21" s="4788" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N21" s="4795" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O21" s="4802" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P21" s="4809" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q21" s="4819"/>
       <c r="R21" s="4826"/>
-      <c r="S21" s="4833"/>
-      <c r="T21" s="4840"/>
-      <c r="U21" s="4847"/>
-      <c r="V21" s="4854"/>
-      <c r="W21" s="4861"/>
+      <c r="S21" s="4831"/>
+      <c r="T21" s="4838"/>
+      <c r="U21" s="4845"/>
+      <c r="V21" s="4852"/>
+      <c r="W21" s="4859"/>
       <c r="X21" s="4868"/>
       <c r="Y21" s="4875"/>
-      <c r="Z21" s="4882"/>
-      <c r="AA21" s="4889"/>
-      <c r="AB21" s="4896"/>
-      <c r="AC21" s="4903"/>
-      <c r="AD21" s="4910"/>
+      <c r="Z21" s="4880"/>
+      <c r="AA21" s="4886" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB21" s="4893" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC21" s="4900" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD21" s="4907" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE21" s="4917"/>
       <c r="AF21" s="4924"/>
       <c r="AG21" s="4931"/>
-      <c r="AH21" s="714"/>
+      <c r="AH21" s="714" t="n">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4935" t="n">
@@ -26464,36 +27026,78 @@
       </c>
       <c r="C22" s="4939"/>
       <c r="D22" s="4946"/>
-      <c r="E22" s="4953"/>
-      <c r="F22" s="4960"/>
-      <c r="G22" s="4967"/>
-      <c r="H22" s="4974"/>
-      <c r="I22" s="4981"/>
+      <c r="E22" s="4950" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F22" s="4957" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G22" s="4964" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H22" s="4971" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I22" s="4978" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J22" s="4988"/>
       <c r="K22" s="4995"/>
-      <c r="L22" s="5002"/>
-      <c r="M22" s="5009"/>
-      <c r="N22" s="5016"/>
-      <c r="O22" s="5023"/>
-      <c r="P22" s="5030"/>
+      <c r="L22" s="4999" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M22" s="5006" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N22" s="5013" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O22" s="5020" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P22" s="5027" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q22" s="5037"/>
       <c r="R22" s="5044"/>
-      <c r="S22" s="5051"/>
-      <c r="T22" s="5058"/>
-      <c r="U22" s="5065"/>
-      <c r="V22" s="5072"/>
-      <c r="W22" s="5079"/>
+      <c r="S22" s="5048" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T22" s="5055" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U22" s="5062" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V22" s="5069" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W22" s="5076" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X22" s="5086"/>
       <c r="Y22" s="5093"/>
-      <c r="Z22" s="5100"/>
-      <c r="AA22" s="5107"/>
-      <c r="AB22" s="5114"/>
-      <c r="AC22" s="5121"/>
-      <c r="AD22" s="5128"/>
+      <c r="Z22" s="5097" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA22" s="5104" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB22" s="5111" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC22" s="5118" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD22" s="5125" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE22" s="5135"/>
       <c r="AF22" s="5142"/>
       <c r="AG22" s="5149"/>
-      <c r="AH22" s="748"/>
+      <c r="AH22" s="748" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="5153" t="n">
@@ -26506,36 +27110,66 @@
       </c>
       <c r="C23" s="5157"/>
       <c r="D23" s="5164"/>
-      <c r="E23" s="5171"/>
-      <c r="F23" s="5178"/>
-      <c r="G23" s="5185"/>
-      <c r="H23" s="5192"/>
-      <c r="I23" s="5199"/>
+      <c r="E23" s="5168" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F23" s="5175" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G23" s="5182" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H23" s="5189" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I23" s="5196" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J23" s="5206"/>
       <c r="K23" s="5213"/>
-      <c r="L23" s="5220"/>
-      <c r="M23" s="5227"/>
-      <c r="N23" s="5234"/>
-      <c r="O23" s="5241"/>
-      <c r="P23" s="5248"/>
+      <c r="L23" s="5217" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M23" s="5224" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N23" s="5231" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O23" s="5238" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P23" s="5245" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q23" s="5255"/>
       <c r="R23" s="5262"/>
-      <c r="S23" s="5269"/>
-      <c r="T23" s="5276"/>
-      <c r="U23" s="5283"/>
-      <c r="V23" s="5290"/>
-      <c r="W23" s="5297"/>
+      <c r="S23" s="5267"/>
+      <c r="T23" s="5274"/>
+      <c r="U23" s="5281"/>
+      <c r="V23" s="5288"/>
+      <c r="W23" s="5295"/>
       <c r="X23" s="5304"/>
       <c r="Y23" s="5311"/>
-      <c r="Z23" s="5318"/>
-      <c r="AA23" s="5325"/>
-      <c r="AB23" s="5332"/>
-      <c r="AC23" s="5339"/>
-      <c r="AD23" s="5346"/>
+      <c r="Z23" s="5316"/>
+      <c r="AA23" s="5322" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB23" s="5329" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC23" s="5336" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD23" s="5343" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE23" s="5353"/>
       <c r="AF23" s="5360"/>
       <c r="AG23" s="5367"/>
-      <c r="AH23" s="782"/>
+      <c r="AH23" s="782" t="n">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5371" t="n">
@@ -26548,36 +27182,78 @@
       </c>
       <c r="C24" s="5375"/>
       <c r="D24" s="5382"/>
-      <c r="E24" s="5389"/>
-      <c r="F24" s="5396"/>
-      <c r="G24" s="5403"/>
-      <c r="H24" s="5410"/>
-      <c r="I24" s="5417"/>
+      <c r="E24" s="5386" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F24" s="5393" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G24" s="5400" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H24" s="5407" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I24" s="5414" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J24" s="5424"/>
       <c r="K24" s="5431"/>
-      <c r="L24" s="5438"/>
-      <c r="M24" s="5445"/>
-      <c r="N24" s="5452"/>
-      <c r="O24" s="5459"/>
-      <c r="P24" s="5466"/>
+      <c r="L24" s="5435" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M24" s="5442" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N24" s="5449" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O24" s="5456" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P24" s="5463" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q24" s="5473"/>
       <c r="R24" s="5480"/>
-      <c r="S24" s="5487"/>
-      <c r="T24" s="5494"/>
-      <c r="U24" s="5501"/>
-      <c r="V24" s="5508"/>
-      <c r="W24" s="5515"/>
+      <c r="S24" s="5484" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T24" s="5491" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U24" s="5498" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V24" s="5505" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W24" s="5512" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X24" s="5522"/>
       <c r="Y24" s="5529"/>
-      <c r="Z24" s="5536"/>
-      <c r="AA24" s="5543"/>
-      <c r="AB24" s="5550"/>
-      <c r="AC24" s="5557"/>
-      <c r="AD24" s="5564"/>
+      <c r="Z24" s="5533" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA24" s="5540" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB24" s="5547" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC24" s="5554" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD24" s="5561" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE24" s="5571"/>
       <c r="AF24" s="5578"/>
       <c r="AG24" s="5585"/>
-      <c r="AH24" s="816"/>
+      <c r="AH24" s="816" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="5589" t="n">
@@ -26590,36 +27266,66 @@
       </c>
       <c r="C25" s="5593"/>
       <c r="D25" s="5600"/>
-      <c r="E25" s="5607"/>
-      <c r="F25" s="5614"/>
-      <c r="G25" s="5621"/>
-      <c r="H25" s="5628"/>
-      <c r="I25" s="5635"/>
+      <c r="E25" s="5604" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="F25" s="5611" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G25" s="5618" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="H25" s="5625" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="I25" s="5632" t="n">
+        <v>9.0</v>
+      </c>
       <c r="J25" s="5642"/>
       <c r="K25" s="5649"/>
-      <c r="L25" s="5656"/>
-      <c r="M25" s="5663"/>
-      <c r="N25" s="5670"/>
-      <c r="O25" s="5677"/>
-      <c r="P25" s="5684"/>
+      <c r="L25" s="5653" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="M25" s="5660" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="N25" s="5667" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="O25" s="5674" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="P25" s="5686" t="n">
+        <v>7.0</v>
+      </c>
       <c r="Q25" s="5691"/>
       <c r="R25" s="5698"/>
-      <c r="S25" s="5705"/>
-      <c r="T25" s="5712"/>
-      <c r="U25" s="5719"/>
-      <c r="V25" s="5726"/>
-      <c r="W25" s="5733"/>
+      <c r="S25" s="5707" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="T25" s="5709" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="U25" s="5716" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="V25" s="5723" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="W25" s="5735"/>
       <c r="X25" s="5740"/>
       <c r="Y25" s="5747"/>
-      <c r="Z25" s="5754"/>
-      <c r="AA25" s="5761"/>
-      <c r="AB25" s="5768"/>
-      <c r="AC25" s="5775"/>
-      <c r="AD25" s="5782"/>
+      <c r="Z25" s="5752"/>
+      <c r="AA25" s="5759"/>
+      <c r="AB25" s="5766"/>
+      <c r="AC25" s="5773"/>
+      <c r="AD25" s="5780"/>
       <c r="AE25" s="5789"/>
       <c r="AF25" s="5796"/>
       <c r="AG25" s="5803"/>
-      <c r="AH25" s="850"/>
+      <c r="AH25" s="850" t="n">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="5807" t="n">
@@ -26632,36 +27338,78 @@
       </c>
       <c r="C26" s="5811"/>
       <c r="D26" s="5818"/>
-      <c r="E26" s="5825"/>
-      <c r="F26" s="5832"/>
-      <c r="G26" s="5839"/>
-      <c r="H26" s="5846"/>
-      <c r="I26" s="5853"/>
+      <c r="E26" s="5822" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F26" s="5829" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G26" s="5836" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H26" s="5843" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I26" s="5850" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J26" s="5860"/>
       <c r="K26" s="5867"/>
-      <c r="L26" s="5874"/>
-      <c r="M26" s="5881"/>
-      <c r="N26" s="5888"/>
-      <c r="O26" s="5895"/>
-      <c r="P26" s="5902"/>
+      <c r="L26" s="5871" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M26" s="5878" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N26" s="5885" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O26" s="5892" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P26" s="5899" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q26" s="5909"/>
       <c r="R26" s="5916"/>
-      <c r="S26" s="5923"/>
-      <c r="T26" s="5930"/>
-      <c r="U26" s="5937"/>
-      <c r="V26" s="5944"/>
-      <c r="W26" s="5951"/>
+      <c r="S26" s="5920" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T26" s="5927" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U26" s="5934" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V26" s="5941" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W26" s="5948" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X26" s="5958"/>
       <c r="Y26" s="5965"/>
-      <c r="Z26" s="5972"/>
-      <c r="AA26" s="5979"/>
-      <c r="AB26" s="5986"/>
-      <c r="AC26" s="5993"/>
-      <c r="AD26" s="6000"/>
+      <c r="Z26" s="5969" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA26" s="5976" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB26" s="5983" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC26" s="5990" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD26" s="5997" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE26" s="6007"/>
       <c r="AF26" s="6014"/>
       <c r="AG26" s="6021"/>
-      <c r="AH26" s="884"/>
+      <c r="AH26" s="884" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6025" t="n">
@@ -26674,36 +27422,78 @@
       </c>
       <c r="C27" s="6029"/>
       <c r="D27" s="6036"/>
-      <c r="E27" s="6043"/>
-      <c r="F27" s="6050"/>
-      <c r="G27" s="6057"/>
-      <c r="H27" s="6064"/>
-      <c r="I27" s="6071"/>
+      <c r="E27" s="6040" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F27" s="6047" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G27" s="6054" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H27" s="6061" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I27" s="6068" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J27" s="6078"/>
       <c r="K27" s="6085"/>
-      <c r="L27" s="6092"/>
-      <c r="M27" s="6099"/>
-      <c r="N27" s="6106"/>
-      <c r="O27" s="6113"/>
-      <c r="P27" s="6120"/>
+      <c r="L27" s="6089" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M27" s="6096" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N27" s="6103" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O27" s="6110" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P27" s="6117" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q27" s="6127"/>
       <c r="R27" s="6134"/>
-      <c r="S27" s="6141"/>
-      <c r="T27" s="6148"/>
-      <c r="U27" s="6155"/>
-      <c r="V27" s="6162"/>
-      <c r="W27" s="6169"/>
+      <c r="S27" s="6138" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T27" s="6145" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U27" s="6152" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V27" s="6159" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W27" s="6166" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X27" s="6176"/>
       <c r="Y27" s="6183"/>
-      <c r="Z27" s="6190"/>
-      <c r="AA27" s="6197"/>
-      <c r="AB27" s="6204"/>
-      <c r="AC27" s="6211"/>
-      <c r="AD27" s="6218"/>
+      <c r="Z27" s="6187" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA27" s="6194" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB27" s="6201" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC27" s="6208" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD27" s="6215" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE27" s="6225"/>
       <c r="AF27" s="6232"/>
       <c r="AG27" s="6239"/>
-      <c r="AH27" s="918"/>
+      <c r="AH27" s="918" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6243" t="n">
@@ -26716,36 +27506,66 @@
       </c>
       <c r="C28" s="6247"/>
       <c r="D28" s="6254"/>
-      <c r="E28" s="6261"/>
-      <c r="F28" s="6268"/>
-      <c r="G28" s="6275"/>
-      <c r="H28" s="6282"/>
-      <c r="I28" s="6289"/>
+      <c r="E28" s="6258" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F28" s="6265" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="6272" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H28" s="6279" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I28" s="6286" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J28" s="6296"/>
       <c r="K28" s="6303"/>
-      <c r="L28" s="6310"/>
-      <c r="M28" s="6317"/>
-      <c r="N28" s="6324"/>
-      <c r="O28" s="6331"/>
-      <c r="P28" s="6338"/>
+      <c r="L28" s="6307" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M28" s="6314" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N28" s="6321" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O28" s="6328" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P28" s="6337"/>
       <c r="Q28" s="6345"/>
       <c r="R28" s="6352"/>
-      <c r="S28" s="6359"/>
-      <c r="T28" s="6366"/>
-      <c r="U28" s="6373"/>
-      <c r="V28" s="6380"/>
-      <c r="W28" s="6387"/>
+      <c r="S28" s="6358"/>
+      <c r="T28" s="6365"/>
+      <c r="U28" s="6372"/>
+      <c r="V28" s="6379"/>
+      <c r="W28" s="6386"/>
       <c r="X28" s="6394"/>
       <c r="Y28" s="6401"/>
-      <c r="Z28" s="6408"/>
-      <c r="AA28" s="6415"/>
-      <c r="AB28" s="6422"/>
-      <c r="AC28" s="6429"/>
-      <c r="AD28" s="6436"/>
+      <c r="Z28" s="6405" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA28" s="6412" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB28" s="6419" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC28" s="6426" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD28" s="6433" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE28" s="6443"/>
       <c r="AF28" s="6450"/>
       <c r="AG28" s="6457"/>
-      <c r="AH28" s="952"/>
+      <c r="AH28" s="952" t="n">
+        <v>112.0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6461" t="n">
@@ -26758,36 +27578,78 @@
       </c>
       <c r="C29" s="6465"/>
       <c r="D29" s="6472"/>
-      <c r="E29" s="6479"/>
-      <c r="F29" s="6486"/>
-      <c r="G29" s="6493"/>
-      <c r="H29" s="6500"/>
-      <c r="I29" s="6507"/>
+      <c r="E29" s="6476" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F29" s="6483" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G29" s="6490" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H29" s="6497" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I29" s="6504" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J29" s="6514"/>
       <c r="K29" s="6521"/>
-      <c r="L29" s="6528"/>
-      <c r="M29" s="6535"/>
-      <c r="N29" s="6542"/>
-      <c r="O29" s="6549"/>
-      <c r="P29" s="6556"/>
+      <c r="L29" s="6525" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M29" s="6532" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N29" s="6539" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O29" s="6546" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P29" s="6553" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q29" s="6563"/>
       <c r="R29" s="6570"/>
-      <c r="S29" s="6577"/>
-      <c r="T29" s="6584"/>
-      <c r="U29" s="6591"/>
-      <c r="V29" s="6598"/>
-      <c r="W29" s="6605"/>
+      <c r="S29" s="6574" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T29" s="6581" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U29" s="6588" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V29" s="6595" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W29" s="6602" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X29" s="6612"/>
       <c r="Y29" s="6619"/>
-      <c r="Z29" s="6626"/>
-      <c r="AA29" s="6633"/>
-      <c r="AB29" s="6640"/>
-      <c r="AC29" s="6647"/>
-      <c r="AD29" s="6654"/>
+      <c r="Z29" s="6623" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA29" s="6630" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB29" s="6637" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC29" s="6644" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD29" s="6651" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE29" s="6661"/>
       <c r="AF29" s="6668"/>
       <c r="AG29" s="6675"/>
-      <c r="AH29" s="986"/>
+      <c r="AH29" s="986" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6679" t="n">
@@ -26800,36 +27662,78 @@
       </c>
       <c r="C30" s="6683"/>
       <c r="D30" s="6690"/>
-      <c r="E30" s="6697"/>
-      <c r="F30" s="6704"/>
-      <c r="G30" s="6711"/>
-      <c r="H30" s="6718"/>
-      <c r="I30" s="6725"/>
+      <c r="E30" s="6694" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F30" s="6701" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G30" s="6708" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H30" s="6715" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I30" s="6722" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J30" s="6732"/>
       <c r="K30" s="6739"/>
-      <c r="L30" s="6746"/>
-      <c r="M30" s="6753"/>
-      <c r="N30" s="6760"/>
-      <c r="O30" s="6767"/>
-      <c r="P30" s="6774"/>
+      <c r="L30" s="6743" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M30" s="6750" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N30" s="6757" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O30" s="6764" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P30" s="6771" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q30" s="6781"/>
       <c r="R30" s="6788"/>
-      <c r="S30" s="6795"/>
-      <c r="T30" s="6802"/>
-      <c r="U30" s="6809"/>
-      <c r="V30" s="6816"/>
-      <c r="W30" s="6823"/>
+      <c r="S30" s="6792" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T30" s="6799" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U30" s="6806" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V30" s="6813" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W30" s="6820" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X30" s="6830"/>
       <c r="Y30" s="6837"/>
-      <c r="Z30" s="6844"/>
-      <c r="AA30" s="6851"/>
-      <c r="AB30" s="6858"/>
-      <c r="AC30" s="6865"/>
-      <c r="AD30" s="6872"/>
+      <c r="Z30" s="6841" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA30" s="6848" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB30" s="6855" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC30" s="6862" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD30" s="6869" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE30" s="6879"/>
       <c r="AF30" s="6886"/>
       <c r="AG30" s="6893"/>
-      <c r="AH30" s="1020"/>
+      <c r="AH30" s="1020" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6897" t="n">
@@ -26842,36 +27746,78 @@
       </c>
       <c r="C31" s="6901"/>
       <c r="D31" s="6908"/>
-      <c r="E31" s="6915"/>
-      <c r="F31" s="6922"/>
-      <c r="G31" s="6929"/>
-      <c r="H31" s="6936"/>
-      <c r="I31" s="6943"/>
+      <c r="E31" s="6912" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F31" s="6919" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G31" s="6926" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H31" s="6933" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I31" s="6940" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J31" s="6950"/>
       <c r="K31" s="6957"/>
-      <c r="L31" s="6964"/>
-      <c r="M31" s="6971"/>
-      <c r="N31" s="6978"/>
-      <c r="O31" s="6985"/>
-      <c r="P31" s="6992"/>
+      <c r="L31" s="6961" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M31" s="6968" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N31" s="6975" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O31" s="6982" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P31" s="6989" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q31" s="6999"/>
       <c r="R31" s="7006"/>
-      <c r="S31" s="7013"/>
-      <c r="T31" s="7020"/>
-      <c r="U31" s="7027"/>
-      <c r="V31" s="7034"/>
-      <c r="W31" s="7041"/>
+      <c r="S31" s="7010" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T31" s="7017" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U31" s="7024" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V31" s="7031" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W31" s="7038" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X31" s="7048"/>
       <c r="Y31" s="7055"/>
-      <c r="Z31" s="7062"/>
-      <c r="AA31" s="7069"/>
-      <c r="AB31" s="7076"/>
-      <c r="AC31" s="7083"/>
-      <c r="AD31" s="7090"/>
+      <c r="Z31" s="7059" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA31" s="7066" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB31" s="7073" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC31" s="7080" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD31" s="7087" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE31" s="7097"/>
       <c r="AF31" s="7104"/>
       <c r="AG31" s="7111"/>
-      <c r="AH31" s="1054"/>
+      <c r="AH31" s="1054" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="7115" t="n">
@@ -26884,36 +27830,78 @@
       </c>
       <c r="C32" s="7119"/>
       <c r="D32" s="7126"/>
-      <c r="E32" s="7133"/>
-      <c r="F32" s="7140"/>
-      <c r="G32" s="7147"/>
-      <c r="H32" s="7154"/>
-      <c r="I32" s="7161"/>
+      <c r="E32" s="7130" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F32" s="7137" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G32" s="7144" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H32" s="7151" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I32" s="7158" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J32" s="7168"/>
       <c r="K32" s="7175"/>
-      <c r="L32" s="7182"/>
-      <c r="M32" s="7189"/>
-      <c r="N32" s="7196"/>
-      <c r="O32" s="7203"/>
-      <c r="P32" s="7210"/>
+      <c r="L32" s="7179" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M32" s="7186" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N32" s="7193" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O32" s="7200" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P32" s="7207" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q32" s="7217"/>
       <c r="R32" s="7224"/>
-      <c r="S32" s="7231"/>
-      <c r="T32" s="7238"/>
-      <c r="U32" s="7245"/>
-      <c r="V32" s="7252"/>
-      <c r="W32" s="7259"/>
+      <c r="S32" s="7228" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T32" s="7235" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U32" s="7242" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V32" s="7249" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W32" s="7256" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X32" s="7266"/>
       <c r="Y32" s="7273"/>
-      <c r="Z32" s="7280"/>
-      <c r="AA32" s="7287"/>
-      <c r="AB32" s="7294"/>
-      <c r="AC32" s="7301"/>
-      <c r="AD32" s="7308"/>
+      <c r="Z32" s="7277" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA32" s="7284" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB32" s="7291" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC32" s="7298" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD32" s="7305" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE32" s="7315"/>
       <c r="AF32" s="7322"/>
       <c r="AG32" s="7329"/>
-      <c r="AH32" s="1088"/>
+      <c r="AH32" s="1088" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="7333" t="n">
@@ -26926,36 +27914,78 @@
       </c>
       <c r="C33" s="7337"/>
       <c r="D33" s="7344"/>
-      <c r="E33" s="7351"/>
-      <c r="F33" s="7358"/>
-      <c r="G33" s="7365"/>
-      <c r="H33" s="7372"/>
-      <c r="I33" s="7379"/>
+      <c r="E33" s="7348" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F33" s="7355" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G33" s="7362" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H33" s="7369" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I33" s="7376" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J33" s="7386"/>
       <c r="K33" s="7393"/>
-      <c r="L33" s="7400"/>
-      <c r="M33" s="7407"/>
-      <c r="N33" s="7414"/>
-      <c r="O33" s="7421"/>
-      <c r="P33" s="7428"/>
+      <c r="L33" s="7397" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M33" s="7404" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N33" s="7411" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O33" s="7418" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P33" s="7425" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q33" s="7435"/>
       <c r="R33" s="7442"/>
-      <c r="S33" s="7449"/>
-      <c r="T33" s="7456"/>
-      <c r="U33" s="7463"/>
-      <c r="V33" s="7470"/>
-      <c r="W33" s="7477"/>
+      <c r="S33" s="7446" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T33" s="7453" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U33" s="7460" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V33" s="7472" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="W33" s="7474" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X33" s="7484"/>
       <c r="Y33" s="7491"/>
-      <c r="Z33" s="7498"/>
-      <c r="AA33" s="7505"/>
-      <c r="AB33" s="7512"/>
-      <c r="AC33" s="7519"/>
-      <c r="AD33" s="7526"/>
+      <c r="Z33" s="7495" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="AA33" s="7502" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB33" s="7509" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC33" s="7516" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD33" s="7523" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE33" s="7533"/>
       <c r="AF33" s="7540"/>
       <c r="AG33" s="7547"/>
-      <c r="AH33" s="1122"/>
+      <c r="AH33" s="1122" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="7551" t="n">
@@ -26968,36 +27998,68 @@
       </c>
       <c r="C34" s="7555"/>
       <c r="D34" s="7562"/>
-      <c r="E34" s="7569"/>
-      <c r="F34" s="7576"/>
-      <c r="G34" s="7583"/>
-      <c r="H34" s="7590"/>
-      <c r="I34" s="7597"/>
+      <c r="E34" s="7566" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F34" s="7573" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G34" s="7580" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H34" s="7587" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I34" s="7594" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J34" s="7604"/>
       <c r="K34" s="7611"/>
-      <c r="L34" s="7618"/>
-      <c r="M34" s="7625"/>
-      <c r="N34" s="7632"/>
-      <c r="O34" s="7639"/>
-      <c r="P34" s="7646"/>
+      <c r="L34" s="7616"/>
+      <c r="M34" s="7623"/>
+      <c r="N34" s="7630"/>
+      <c r="O34" s="7637"/>
+      <c r="P34" s="7644"/>
       <c r="Q34" s="7653"/>
       <c r="R34" s="7660"/>
-      <c r="S34" s="7667"/>
-      <c r="T34" s="7674"/>
-      <c r="U34" s="7681"/>
-      <c r="V34" s="7688"/>
-      <c r="W34" s="7695"/>
+      <c r="S34" s="7664" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T34" s="7671" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U34" s="7678" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V34" s="7690" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="W34" s="7692" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X34" s="7702"/>
       <c r="Y34" s="7709"/>
-      <c r="Z34" s="7716"/>
-      <c r="AA34" s="7723"/>
-      <c r="AB34" s="7730"/>
-      <c r="AC34" s="7737"/>
-      <c r="AD34" s="7744"/>
+      <c r="Z34" s="7713" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="AA34" s="7720" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB34" s="7727" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC34" s="7734" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD34" s="7741" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE34" s="7751"/>
       <c r="AF34" s="7758"/>
       <c r="AG34" s="7765"/>
-      <c r="AH34" s="1156"/>
+      <c r="AH34" s="1156" t="n">
+        <v>120.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="7769" t="n">
@@ -27010,36 +28072,78 @@
       </c>
       <c r="C35" s="7773"/>
       <c r="D35" s="7780"/>
-      <c r="E35" s="7787"/>
-      <c r="F35" s="7794"/>
-      <c r="G35" s="7801"/>
-      <c r="H35" s="7808"/>
-      <c r="I35" s="7815"/>
+      <c r="E35" s="7784" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="F35" s="7791" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G35" s="7798" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="H35" s="7805" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="I35" s="7812" t="n">
+        <v>8.0</v>
+      </c>
       <c r="J35" s="7822"/>
       <c r="K35" s="7829"/>
-      <c r="L35" s="7836"/>
-      <c r="M35" s="7843"/>
-      <c r="N35" s="7850"/>
-      <c r="O35" s="7857"/>
-      <c r="P35" s="7864"/>
+      <c r="L35" s="7833" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="M35" s="7840" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="N35" s="7847" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="O35" s="7854" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="P35" s="7861" t="n">
+        <v>8.0</v>
+      </c>
       <c r="Q35" s="7871"/>
       <c r="R35" s="7878"/>
-      <c r="S35" s="7885"/>
-      <c r="T35" s="7892"/>
-      <c r="U35" s="7899"/>
-      <c r="V35" s="7906"/>
-      <c r="W35" s="7913"/>
+      <c r="S35" s="7882" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T35" s="7889" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="U35" s="7896" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="V35" s="7903" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="W35" s="7910" t="n">
+        <v>8.0</v>
+      </c>
       <c r="X35" s="7920"/>
       <c r="Y35" s="7927"/>
-      <c r="Z35" s="7934"/>
-      <c r="AA35" s="7941"/>
-      <c r="AB35" s="7948"/>
-      <c r="AC35" s="7955"/>
-      <c r="AD35" s="7962"/>
+      <c r="Z35" s="7931" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AA35" s="7938" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AB35" s="7945" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AC35" s="7952" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AD35" s="7959" t="n">
+        <v>8.0</v>
+      </c>
       <c r="AE35" s="7969"/>
       <c r="AF35" s="7976"/>
       <c r="AG35" s="7983"/>
-      <c r="AH35" s="1190"/>
+      <c r="AH35" s="1190" t="n">
+        <v>160.0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="7987" t="inlineStr">
@@ -27050,36 +28154,72 @@
       <c r="B36" s="1192"/>
       <c r="C36" s="7776"/>
       <c r="D36" s="7783"/>
-      <c r="E36" s="7790"/>
-      <c r="F36" s="7797"/>
-      <c r="G36" s="7804"/>
-      <c r="H36" s="7811"/>
-      <c r="I36" s="7818"/>
+      <c r="E36" s="7790" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="F36" s="7797" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="G36" s="7804" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="H36" s="7811" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="I36" s="7818" t="n">
+        <v>27.0</v>
+      </c>
       <c r="J36" s="7825"/>
       <c r="K36" s="7832"/>
-      <c r="L36" s="7839"/>
+      <c r="L36" s="7839" t="n">
+        <v>27.0</v>
+      </c>
       <c r="M36" s="7846" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="N36" s="7853"/>
-      <c r="O36" s="7860"/>
-      <c r="P36" s="7867"/>
-      <c r="Q36" s="7874" t="n">
-        <v>3.0</v>
-      </c>
+        <v>27.0</v>
+      </c>
+      <c r="N36" s="7853" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="O36" s="7860" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="P36" s="7867" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="Q36" s="7874"/>
       <c r="R36" s="7881"/>
-      <c r="S36" s="7888"/>
-      <c r="T36" s="7895"/>
-      <c r="U36" s="7902"/>
-      <c r="V36" s="7909"/>
-      <c r="W36" s="7916"/>
+      <c r="S36" s="7888" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="T36" s="7895" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="U36" s="7902" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="V36" s="7909" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="W36" s="7916" t="n">
+        <v>25.0</v>
+      </c>
       <c r="X36" s="7923"/>
       <c r="Y36" s="7930"/>
-      <c r="Z36" s="7937"/>
-      <c r="AA36" s="7944"/>
-      <c r="AB36" s="7951"/>
-      <c r="AC36" s="7958"/>
-      <c r="AD36" s="7965"/>
+      <c r="Z36" s="7937" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AA36" s="7944" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AB36" s="7951" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AC36" s="7958" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="AD36" s="7965" t="n">
+        <v>29.0</v>
+      </c>
       <c r="AE36" s="7972"/>
       <c r="AF36" s="7979"/>
       <c r="AG36" s="7986"/>
